--- a/Technology/Software/Global-E.xlsx
+++ b/Technology/Software/Global-E.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8AFF55-D4FF-CA4F-833D-20985570FF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEFDCB1-B9C6-D945-BFF6-11C3E578FDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40960" yWindow="9800" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2225,11 +2225,11 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>37.646000000000001</v>
-    <v>15.63</v>
-    <v>0.48499999999999999</v>
-    <v>1.6612000000000002E-2</v>
-    <v>-0.34</v>
-    <v>-1.1455999999999999E-2</v>
+    <v>16.32</v>
+    <v>0.95</v>
+    <v>2.8963000000000003E-2</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>Global-E Online Ltd is an Israel-based company operates as a software publisher. It develops e-commerce platform Global-e which enable direct-to-consumer cross-border e-commerce. Through its end-to-end solutions that combine localization capabilities, big-data business intelligence models, international logistics and cross-border experience, it enables retailers and brands to increase international traffic conversion and sales and achieve global online growth. The Company operates from seven offices worldwide and is the chosen partner of retailers and brands across the United States, Europe and Asia.</v>
     <v>767</v>
@@ -2237,25 +2237,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>25 Basel Street, PETAH TIKVA, 4951038 IL</v>
-    <v>29.93</v>
+    <v>34.25</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45037.840420219531</v>
+    <v>45070.941241782028</v>
     <v>0</v>
-    <v>29.05</v>
-    <v>4851712000</v>
+    <v>32.25</v>
+    <v>5387516000</v>
     <v>GLOBAL-E ONLINE LTD</v>
     <v>GLOBAL-E ONLINE LTD</v>
-    <v>29.33</v>
+    <v>32.68</v>
     <v>8554.902</v>
-    <v>29.195</v>
-    <v>29.68</v>
-    <v>29.34</v>
-    <v>163467400</v>
+    <v>32.799999999999997</v>
+    <v>33.75</v>
+    <v>33.75</v>
+    <v>164253600</v>
     <v>GLBE</v>
     <v>GLOBAL-E ONLINE LTD (XNAS:GLBE)</v>
-    <v>531069</v>
-    <v>956808</v>
+    <v>2907250</v>
+    <v>1156555</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -2839,10 +2839,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I99" sqref="I99"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3399,15 +3399,15 @@
       </c>
       <c r="M16" s="31">
         <f>N101/F3</f>
-        <v>11.860955533444649</v>
+        <v>13.170832834208127</v>
       </c>
       <c r="N16" s="31">
         <f>N101/F28</f>
-        <v>-24.829006422558276</v>
+        <v>-27.571024282899618</v>
       </c>
       <c r="O16" s="32">
         <f>N101/F106</f>
-        <v>66.340940478306649</v>
+        <v>73.667373142083605</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5281,7 +5281,7 @@
       </c>
       <c r="N100" s="35">
         <f>N99/N103</f>
-        <v>4.0693530746770627E-3</v>
+        <v>3.6661278928271572E-3</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="N101" s="39" cm="1">
         <f t="array" ref="N101">_FV(A1,"Market cap",TRUE)</f>
-        <v>4851712000</v>
+        <v>5387516000</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="N102" s="35">
         <f>N101/N103</f>
-        <v>0.99593064692532296</v>
+        <v>0.99633387210717284</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5362,7 +5362,7 @@
       </c>
       <c r="N103" s="40">
         <f>N99+N101</f>
-        <v>4871536000</v>
+        <v>5407340000</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5421,7 +5421,7 @@
       </c>
       <c r="N105" s="27">
         <f>(N100*N92)+(N102*N97)</f>
-        <v>0.14256087494359382</v>
+        <v>0.14285820170827343</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5487,7 +5487,7 @@
       <c r="J107" s="42"/>
       <c r="K107" s="45">
         <f>K106*(1+N107)/(N108-N107)</f>
-        <v>2335806187.0774097</v>
+        <v>2329913532.2900801</v>
       </c>
       <c r="L107" s="46" t="s">
         <v>148</v>
@@ -5518,7 +5518,7 @@
       </c>
       <c r="K108" s="45">
         <f>K107+K106</f>
-        <v>2603708059.3227563</v>
+        <v>2597815404.5354266</v>
       </c>
       <c r="L108" s="46" t="s">
         <v>144</v>
@@ -5528,7 +5528,7 @@
       </c>
       <c r="N108" s="50">
         <f>N105</f>
-        <v>0.14256087494359382</v>
+        <v>0.14285820170827343</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5543,7 +5543,7 @@
       </c>
       <c r="H110" s="39">
         <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>1742456626.4506788</v>
+        <v>1737415632.1665688</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5570,7 +5570,7 @@
       </c>
       <c r="H113" s="39">
         <f>H110+H111-H112</f>
-        <v>1950831626.4506788</v>
+        <v>1945790632.1665688</v>
       </c>
     </row>
     <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5588,7 +5588,7 @@
       </c>
       <c r="H115" s="54">
         <f>H113/H114</f>
-        <v>18.1475919729527</v>
+        <v>18.100698173320971</v>
       </c>
     </row>
     <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5597,7 +5597,7 @@
       </c>
       <c r="H116" s="55" cm="1">
         <f t="array" ref="H116">_FV(A1,"Price")</f>
-        <v>29.68</v>
+        <v>33.75</v>
       </c>
     </row>
     <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5606,7 +5606,7 @@
       </c>
       <c r="H117" s="57">
         <f>H115/H116-1</f>
-        <v>-0.38855822193555589</v>
+        <v>-0.46368301708678605</v>
       </c>
     </row>
     <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Global-E.xlsx
+++ b/Technology/Software/Global-E.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEFDCB1-B9C6-D945-BFF6-11C3E578FDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1227E9E0-9A75-3643-90A6-4D0B62F15C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40960" yWindow="9800" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -893,7 +893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1036,6 +1036,8 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2226,10 +2228,10 @@
     <v>Powered by Refinitiv</v>
     <v>37.646000000000001</v>
     <v>16.32</v>
-    <v>0.95</v>
-    <v>2.8963000000000003E-2</v>
-    <v>0</v>
-    <v>0</v>
+    <v>-0.27</v>
+    <v>-8.3149999999999995E-3</v>
+    <v>0.16</v>
+    <v>4.9690000000000003E-3</v>
     <v>USD</v>
     <v>Global-E Online Ltd is an Israel-based company operates as a software publisher. It develops e-commerce platform Global-e which enable direct-to-consumer cross-border e-commerce. Through its end-to-end solutions that combine localization capabilities, big-data business intelligence models, international logistics and cross-border experience, it enables retailers and brands to increase international traffic conversion and sales and achieve global online growth. The Company operates from seven offices worldwide and is the chosen partner of retailers and brands across the United States, Europe and Asia.</v>
     <v>767</v>
@@ -2237,25 +2239,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>25 Basel Street, PETAH TIKVA, 4951038 IL</v>
-    <v>34.25</v>
+    <v>34.14</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45070.941241782028</v>
+    <v>45072.969710693753</v>
     <v>0</v>
-    <v>32.25</v>
-    <v>5387516000</v>
+    <v>32.07</v>
+    <v>5288964000</v>
     <v>GLOBAL-E ONLINE LTD</v>
     <v>GLOBAL-E ONLINE LTD</v>
-    <v>32.68</v>
+    <v>32.89</v>
     <v>8554.902</v>
-    <v>32.799999999999997</v>
-    <v>33.75</v>
-    <v>33.75</v>
+    <v>32.47</v>
+    <v>32.200000000000003</v>
+    <v>32.36</v>
     <v>164253600</v>
     <v>GLBE</v>
     <v>GLOBAL-E ONLINE LTD (XNAS:GLBE)</v>
-    <v>2907250</v>
-    <v>1156555</v>
+    <v>1325061</v>
+    <v>1292386</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -2839,10 +2841,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomRight" activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3399,15 +3401,15 @@
       </c>
       <c r="M16" s="31">
         <f>N101/F3</f>
-        <v>13.170832834208127</v>
+        <v>12.929903263423208</v>
       </c>
       <c r="N16" s="31">
         <f>N101/F28</f>
-        <v>-27.571024282899618</v>
+        <v>-27.066676901819299</v>
       </c>
       <c r="O16" s="32">
         <f>N101/F106</f>
-        <v>73.667373142083605</v>
+        <v>72.319800910669599</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5281,7 +5283,7 @@
       </c>
       <c r="N100" s="35">
         <f>N99/N103</f>
-        <v>3.6661278928271572E-3</v>
+        <v>3.7341856559350269E-3</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5308,7 +5310,7 @@
       </c>
       <c r="N101" s="39" cm="1">
         <f t="array" ref="N101">_FV(A1,"Market cap",TRUE)</f>
-        <v>5387516000</v>
+        <v>5288964000</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5335,7 +5337,7 @@
       </c>
       <c r="N102" s="35">
         <f>N101/N103</f>
-        <v>0.99633387210717284</v>
+        <v>0.99626581434406503</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5362,7 +5364,7 @@
       </c>
       <c r="N103" s="40">
         <f>N99+N101</f>
-        <v>5407340000</v>
+        <v>5308788000</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5410,18 +5412,28 @@
         <f>(F106/E106)-1</f>
         <v>4.6846482705013601</v>
       </c>
-      <c r="G105" s="15"/>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="15"/>
-      <c r="K105" s="15"/>
+      <c r="G105" s="68">
+        <v>88178000</v>
+      </c>
+      <c r="H105" s="68">
+        <v>130900000</v>
+      </c>
+      <c r="I105" s="68">
+        <v>199700000</v>
+      </c>
+      <c r="J105" s="68">
+        <v>317300000</v>
+      </c>
+      <c r="K105" s="68">
+        <v>478800000</v>
+      </c>
       <c r="L105" s="15"/>
       <c r="M105" s="26" t="s">
         <v>108</v>
       </c>
       <c r="N105" s="27">
         <f>(N100*N92)+(N102*N97)</f>
-        <v>0.14285820170827343</v>
+        <v>0.14280801785213787</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5485,9 +5497,9 @@
       <c r="H107" s="42"/>
       <c r="I107" s="42"/>
       <c r="J107" s="42"/>
-      <c r="K107" s="45">
-        <f>K106*(1+N107)/(N108-N107)</f>
-        <v>2329913532.2900801</v>
+      <c r="K107" s="69">
+        <f>K105*(1+N107)/(N108-N107)</f>
+        <v>4165845491.2293892</v>
       </c>
       <c r="L107" s="46" t="s">
         <v>148</v>
@@ -5516,9 +5528,9 @@
         <f>J107+J106</f>
         <v>206634710.82078862</v>
       </c>
-      <c r="K108" s="45">
-        <f>K107+K106</f>
-        <v>2597815404.5354266</v>
+      <c r="K108" s="69">
+        <f>K107+K105</f>
+        <v>4644645491.2293892</v>
       </c>
       <c r="L108" s="46" t="s">
         <v>144</v>
@@ -5528,7 +5540,7 @@
       </c>
       <c r="N108" s="50">
         <f>N105</f>
-        <v>0.14285820170827343</v>
+        <v>0.14280801785213787</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5543,7 +5555,7 @@
       </c>
       <c r="H110" s="39">
         <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>1737415632.1665688</v>
+        <v>2787818568.8441348</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5570,7 +5582,7 @@
       </c>
       <c r="H113" s="39">
         <f>H110+H111-H112</f>
-        <v>1945790632.1665688</v>
+        <v>2996193568.8441348</v>
       </c>
     </row>
     <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5588,7 +5600,7 @@
       </c>
       <c r="H115" s="54">
         <f>H113/H114</f>
-        <v>18.100698173320971</v>
+        <v>27.872061136457592</v>
       </c>
     </row>
     <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5597,7 +5609,7 @@
       </c>
       <c r="H116" s="55" cm="1">
         <f t="array" ref="H116">_FV(A1,"Price")</f>
-        <v>33.75</v>
+        <v>32.200000000000003</v>
       </c>
     </row>
     <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5606,7 +5618,7 @@
       </c>
       <c r="H117" s="57">
         <f>H115/H116-1</f>
-        <v>-0.46368301708678605</v>
+        <v>-0.13440803924044753</v>
       </c>
     </row>
     <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Global-E.xlsx
+++ b/Technology/Software/Global-E.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1227E9E0-9A75-3643-90A6-4D0B62F15C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B838E761-A140-3440-BED7-A5264B6EC376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1015,6 +1015,8 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1036,8 +1038,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2226,12 +2226,10 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>37.646000000000001</v>
-    <v>16.32</v>
-    <v>-0.27</v>
-    <v>-8.3149999999999995E-3</v>
-    <v>0.16</v>
-    <v>4.9690000000000003E-3</v>
+    <v>39</v>
+    <v>18.14</v>
+    <v>-0.31</v>
+    <v>-8.2360000000000003E-3</v>
     <v>USD</v>
     <v>Global-E Online Ltd is an Israel-based company operates as a software publisher. It develops e-commerce platform Global-e which enable direct-to-consumer cross-border e-commerce. Through its end-to-end solutions that combine localization capabilities, big-data business intelligence models, international logistics and cross-border experience, it enables retailers and brands to increase international traffic conversion and sales and achieve global online growth. The Company operates from seven offices worldwide and is the chosen partner of retailers and brands across the United States, Europe and Asia.</v>
     <v>767</v>
@@ -2239,25 +2237,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>25 Basel Street, PETAH TIKVA, 4951038 IL</v>
-    <v>34.14</v>
+    <v>37.770000000000003</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45072.969710693753</v>
+    <v>45099.981825902345</v>
     <v>0</v>
-    <v>32.07</v>
-    <v>5288964000</v>
+    <v>36.6</v>
+    <v>6182503000</v>
     <v>GLOBAL-E ONLINE LTD</v>
     <v>GLOBAL-E ONLINE LTD</v>
-    <v>32.89</v>
+    <v>37.28</v>
     <v>8554.902</v>
-    <v>32.47</v>
-    <v>32.200000000000003</v>
-    <v>32.36</v>
+    <v>37.64</v>
+    <v>37.33</v>
     <v>164253600</v>
     <v>GLBE</v>
     <v>GLOBAL-E ONLINE LTD (XNAS:GLBE)</v>
-    <v>1325061</v>
-    <v>1292386</v>
+    <v>122</v>
+    <v>1862803</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -2288,8 +2285,6 @@
     <k n="52 week low"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2310,7 +2305,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2327,7 +2321,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="44">
+    <a count="41">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2338,16 +2332,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2411,19 +2402,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2467,9 +2452,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2477,9 +2459,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2844,7 +2823,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E114" sqref="E114"/>
+      <selection pane="bottomRight" activeCell="G123" sqref="G123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3401,15 +3380,15 @@
       </c>
       <c r="M16" s="31">
         <f>N101/F3</f>
-        <v>12.929903263423208</v>
+        <v>15.114333490608704</v>
       </c>
       <c r="N16" s="31">
         <f>N101/F28</f>
-        <v>-27.066676901819299</v>
+        <v>-31.639430925513675</v>
       </c>
       <c r="O16" s="32">
         <f>N101/F106</f>
-        <v>72.319800910669599</v>
+        <v>84.537800992711908</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -3520,13 +3499,13 @@
       <c r="F21" s="2">
         <v>-0.45</v>
       </c>
-      <c r="L21" s="63" t="str" cm="1">
+      <c r="L21" s="65" t="str" cm="1">
         <f t="array" ref="L21">_FV(A1,"Description")</f>
         <v>Global-E Online Ltd is an Israel-based company operates as a software publisher. It develops e-commerce platform Global-e which enable direct-to-consumer cross-border e-commerce. Through its end-to-end solutions that combine localization capabilities, big-data business intelligence models, international logistics and cross-border experience, it enables retailers and brands to increase international traffic conversion and sales and achieve global online growth. The Company operates from seven offices worldwide and is the chosen partner of retailers and brands across the United States, Europe and Asia.</v>
       </c>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
     </row>
     <row r="22" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -3547,10 +3526,10 @@
       <c r="F22" s="10">
         <v>-189324000</v>
       </c>
-      <c r="L22" s="63"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="63"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
     </row>
     <row r="23" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -3571,10 +3550,10 @@
       <c r="F23" s="2">
         <v>-0.46279999999999999</v>
       </c>
-      <c r="L23" s="63"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="63"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="65"/>
     </row>
     <row r="24" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -3595,10 +3574,10 @@
       <c r="F24" s="1">
         <v>-12093000</v>
       </c>
-      <c r="L24" s="63"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="63"/>
-      <c r="O24" s="63"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
     </row>
     <row r="25" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -3619,10 +3598,10 @@
       <c r="F25" s="10">
         <v>-201417000</v>
       </c>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="63"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="65"/>
+      <c r="N25" s="65"/>
+      <c r="O25" s="65"/>
     </row>
     <row r="26" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -3643,10 +3622,10 @@
       <c r="F26" s="2">
         <v>-0.4924</v>
       </c>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="63"/>
-      <c r="O26" s="63"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="65"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="65"/>
     </row>
     <row r="27" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -3667,10 +3646,10 @@
       <c r="F27" s="1">
         <v>-6012000</v>
       </c>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="63"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="65"/>
     </row>
     <row r="28" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
@@ -3691,10 +3670,10 @@
       <c r="F28" s="11">
         <v>-195405000</v>
       </c>
-      <c r="L28" s="63"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="63"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="65"/>
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
@@ -3717,10 +3696,10 @@
         <f>(F28/E28)-1</f>
         <v>1.607729571750764</v>
       </c>
-      <c r="L29" s="63"/>
-      <c r="M29" s="63"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="63"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="65"/>
     </row>
     <row r="30" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -3741,10 +3720,10 @@
       <c r="F30" s="2">
         <v>-0.47770000000000001</v>
       </c>
-      <c r="L30" s="63"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="63"/>
-      <c r="O30" s="63"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="65"/>
+      <c r="O30" s="65"/>
     </row>
     <row r="31" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -3765,10 +3744,10 @@
       <c r="F31" s="12">
         <v>-1.71</v>
       </c>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="63"/>
+      <c r="L31" s="65"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="65"/>
+      <c r="O31" s="65"/>
     </row>
     <row r="32" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -3789,10 +3768,10 @@
       <c r="F32" s="12">
         <v>-1.71</v>
       </c>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="63"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="65"/>
+      <c r="N32" s="65"/>
+      <c r="O32" s="65"/>
     </row>
     <row r="33" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -3813,10 +3792,10 @@
       <c r="F33" s="1">
         <v>114552727</v>
       </c>
-      <c r="L33" s="63"/>
-      <c r="M33" s="63"/>
-      <c r="N33" s="63"/>
-      <c r="O33" s="63"/>
+      <c r="L33" s="65"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="65"/>
     </row>
     <row r="34" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
@@ -3837,10 +3816,10 @@
       <c r="F34" s="1">
         <v>114552727</v>
       </c>
-      <c r="L34" s="63"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="63"/>
-      <c r="O34" s="63"/>
+      <c r="L34" s="65"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="65"/>
+      <c r="O34" s="65"/>
     </row>
     <row r="35" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
@@ -4828,10 +4807,10 @@
       <c r="F83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M83" s="64" t="s">
+      <c r="M83" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="N83" s="65"/>
+      <c r="N83" s="67"/>
     </row>
     <row r="84" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4852,10 +4831,10 @@
       <c r="F84" s="1">
         <v>16648000</v>
       </c>
-      <c r="M84" s="66" t="s">
+      <c r="M84" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="N84" s="67"/>
+      <c r="N84" s="69"/>
     </row>
     <row r="85" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -5097,10 +5076,10 @@
       <c r="F93" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M93" s="66" t="s">
+      <c r="M93" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="N93" s="67"/>
+      <c r="N93" s="69"/>
     </row>
     <row r="94" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5227,10 +5206,10 @@
       <c r="F98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M98" s="66" t="s">
+      <c r="M98" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="N98" s="67"/>
+      <c r="N98" s="69"/>
     </row>
     <row r="99" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5283,7 +5262,7 @@
       </c>
       <c r="N100" s="35">
         <f>N99/N103</f>
-        <v>3.7341856559350269E-3</v>
+        <v>3.1962197413970593E-3</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5310,7 +5289,7 @@
       </c>
       <c r="N101" s="39" cm="1">
         <f t="array" ref="N101">_FV(A1,"Market cap",TRUE)</f>
-        <v>5288964000</v>
+        <v>6182503000</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5337,7 +5316,7 @@
       </c>
       <c r="N102" s="35">
         <f>N101/N103</f>
-        <v>0.99626581434406503</v>
+        <v>0.99680378025860294</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5364,7 +5343,7 @@
       </c>
       <c r="N103" s="40">
         <f>N99+N101</f>
-        <v>5308788000</v>
+        <v>6202327000</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5386,10 +5365,10 @@
       <c r="F104" s="11">
         <v>211522000</v>
       </c>
-      <c r="M104" s="66" t="s">
+      <c r="M104" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="N104" s="67"/>
+      <c r="N104" s="69"/>
     </row>
     <row r="105" spans="1:14" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -5412,19 +5391,19 @@
         <f>(F106/E106)-1</f>
         <v>4.6846482705013601</v>
       </c>
-      <c r="G105" s="68">
+      <c r="G105" s="61">
         <v>88178000</v>
       </c>
-      <c r="H105" s="68">
+      <c r="H105" s="61">
         <v>130900000</v>
       </c>
-      <c r="I105" s="68">
+      <c r="I105" s="61">
         <v>199700000</v>
       </c>
-      <c r="J105" s="68">
+      <c r="J105" s="61">
         <v>317300000</v>
       </c>
-      <c r="K105" s="68">
+      <c r="K105" s="61">
         <v>478800000</v>
       </c>
       <c r="L105" s="15"/>
@@ -5433,7 +5412,7 @@
       </c>
       <c r="N105" s="27">
         <f>(N100*N92)+(N102*N97)</f>
-        <v>0.14280801785213787</v>
+        <v>0.14320469859549737</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5497,9 +5476,9 @@
       <c r="H107" s="42"/>
       <c r="I107" s="42"/>
       <c r="J107" s="42"/>
-      <c r="K107" s="69">
+      <c r="K107" s="62">
         <f>K105*(1+N107)/(N108-N107)</f>
-        <v>4165845491.2293892</v>
+        <v>4151865415.091835</v>
       </c>
       <c r="L107" s="46" t="s">
         <v>148</v>
@@ -5528,9 +5507,9 @@
         <f>J107+J106</f>
         <v>206634710.82078862</v>
       </c>
-      <c r="K108" s="69">
+      <c r="K108" s="62">
         <f>K107+K105</f>
-        <v>4644645491.2293892</v>
+        <v>4630665415.091835</v>
       </c>
       <c r="L108" s="46" t="s">
         <v>144</v>
@@ -5540,14 +5519,14 @@
       </c>
       <c r="N108" s="50">
         <f>N105</f>
-        <v>0.14280801785213787</v>
+        <v>0.14320469859549737</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G109" s="61" t="s">
+      <c r="G109" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="H109" s="62"/>
+      <c r="H109" s="64"/>
     </row>
     <row r="110" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="G110" s="51" t="s">
@@ -5555,7 +5534,7 @@
       </c>
       <c r="H110" s="39">
         <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>2787818568.8441348</v>
+        <v>2776154516.9028864</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5582,7 +5561,7 @@
       </c>
       <c r="H113" s="39">
         <f>H110+H111-H112</f>
-        <v>2996193568.8441348</v>
+        <v>2984529516.9028864</v>
       </c>
     </row>
     <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5600,7 +5579,7 @@
       </c>
       <c r="H115" s="54">
         <f>H113/H114</f>
-        <v>27.872061136457592</v>
+        <v>27.763556408263174</v>
       </c>
     </row>
     <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5609,7 +5588,7 @@
       </c>
       <c r="H116" s="55" cm="1">
         <f t="array" ref="H116">_FV(A1,"Price")</f>
-        <v>32.200000000000003</v>
+        <v>37.33</v>
       </c>
     </row>
     <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5618,7 +5597,7 @@
       </c>
       <c r="H117" s="57">
         <f>H115/H116-1</f>
-        <v>-0.13440803924044753</v>
+        <v>-0.25626690575239286</v>
       </c>
     </row>
     <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Global-E.xlsx
+++ b/Technology/Software/Global-E.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B838E761-A140-3440-BED7-A5264B6EC376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A1FA00-CD6B-0A4B-A87C-63BDE6241005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -510,9 +507,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,18 +544,50 @@
   </si>
   <si>
     <t>Shares</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -724,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -830,22 +856,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -853,47 +870,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -938,105 +920,100 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1088,12 +1065,20 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>GLBE</a:t>
+              <a:t>Global-E</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.44708457711442784"/>
+          <c:y val="2.9101494785676658E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1127,10 +1112,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.7867934824978557E-2"/>
-          <c:y val="0.12483708587508614"/>
-          <c:w val="0.86404625659416323"/>
-          <c:h val="0.7640638559559968"/>
+          <c:x val="7.9582037319961871E-2"/>
+          <c:y val="0.14413970367345652"/>
+          <c:w val="0.86469656964521213"/>
+          <c:h val="0.71364060387205686"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1184,6 +1169,30 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$F$3</c:f>
@@ -1210,7 +1219,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4738-6347-AE18-23BF72A2459B}"/>
+              <c16:uniqueId val="{00000000-8619-3E46-8E4E-C9F5EBD800A9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1219,11 +1228,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1261,33 +1270,57 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$F$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-11381000</c:v>
+                  <c:v>-11593000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7339000</c:v>
+                  <c:v>-7544000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4309000</c:v>
+                  <c:v>3914000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-65327000</c:v>
+                  <c:v>-74933000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-184092000</c:v>
+                  <c:v>-195405000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4738-6347-AE18-23BF72A2459B}"/>
+              <c16:uniqueId val="{00000001-8619-3E46-8E4E-C9F5EBD800A9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1296,11 +1329,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1338,9 +1371,33 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$F$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$F$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1364,7 +1421,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4738-6347-AE18-23BF72A2459B}"/>
+              <c16:uniqueId val="{00000002-8619-3E46-8E4E-C9F5EBD800A9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1378,11 +1435,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1372330656"/>
-        <c:axId val="1372332384"/>
+        <c:axId val="1438885488"/>
+        <c:axId val="1438887216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1372330656"/>
+        <c:axId val="1438885488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1410,7 +1467,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1422,7 +1479,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1372332384"/>
+        <c:crossAx val="1438887216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1430,7 +1487,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1372332384"/>
+        <c:axId val="1438887216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-200000000"/>
@@ -1479,7 +1536,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1372330656"/>
+        <c:crossAx val="1438885488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1493,6 +1550,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33728261579242891"/>
+          <c:y val="0.89960419675635206"/>
+          <c:w val="0.31482106527728809"/>
+          <c:h val="5.9653710543700708E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2070,22 +2137,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
+      <xdr:colOff>31749</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>17463</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1587499</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>15874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A376ACDF-7C2E-6A39-E029-226BD55F0FEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6104C461-F42C-0206-5A6E-E6D66EA12E96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2104,6 +2171,68 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Small Cap Gems"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11">
+        <row r="8">
+          <cell r="C8">
+            <v>3.7190000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2228,8 +2357,8 @@
     <v>Powered by Refinitiv</v>
     <v>39</v>
     <v>18.14</v>
-    <v>-0.31</v>
-    <v>-8.2360000000000003E-3</v>
+    <v>1.17</v>
+    <v>3.1924000000000001E-2</v>
     <v>USD</v>
     <v>Global-E Online Ltd is an Israel-based company operates as a software publisher. It develops e-commerce platform Global-e which enable direct-to-consumer cross-border e-commerce. Through its end-to-end solutions that combine localization capabilities, big-data business intelligence models, international logistics and cross-border experience, it enables retailers and brands to increase international traffic conversion and sales and achieve global online growth. The Company operates from seven offices worldwide and is the chosen partner of retailers and brands across the United States, Europe and Asia.</v>
     <v>767</v>
@@ -2237,24 +2366,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>25 Basel Street, PETAH TIKVA, 4951038 IL</v>
-    <v>37.770000000000003</v>
+    <v>37.97</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45099.981825902345</v>
+    <v>45104.991532835156</v>
     <v>0</v>
-    <v>36.6</v>
-    <v>6182503000</v>
+    <v>36.71</v>
+    <v>6212071152</v>
     <v>GLOBAL-E ONLINE LTD</v>
     <v>GLOBAL-E ONLINE LTD</v>
-    <v>37.28</v>
+    <v>37.06</v>
     <v>8554.902</v>
-    <v>37.64</v>
-    <v>37.33</v>
+    <v>36.65</v>
+    <v>37.82</v>
     <v>164253600</v>
     <v>GLBE</v>
     <v>GLOBAL-E ONLINE LTD (XNAS:GLBE)</v>
-    <v>122</v>
-    <v>1862803</v>
+    <v>1</v>
+    <v>1698350</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -2820,10 +2949,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G123" sqref="G123"/>
+      <selection pane="bottomRight" activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2852,19 +2981,19 @@
       <c r="F1" s="8">
         <v>2022</v>
       </c>
-      <c r="G1" s="28">
+      <c r="G1" s="24">
         <v>2023</v>
       </c>
-      <c r="H1" s="28">
+      <c r="H1" s="24">
         <v>2024</v>
       </c>
-      <c r="I1" s="28">
+      <c r="I1" s="24">
         <v>2025</v>
       </c>
-      <c r="J1" s="28">
+      <c r="J1" s="24">
         <v>2026</v>
       </c>
-      <c r="K1" s="28">
+      <c r="K1" s="24">
         <v>2027</v>
       </c>
     </row>
@@ -2873,28 +3002,28 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
@@ -2922,37 +3051,37 @@
       <c r="F3" s="1">
         <v>409049000</v>
       </c>
-      <c r="G3" s="29">
-        <v>574200000</v>
-      </c>
-      <c r="H3" s="29">
-        <v>770600000</v>
-      </c>
-      <c r="I3" s="29">
-        <v>1130000000</v>
-      </c>
-      <c r="J3" s="29">
-        <v>1187000000</v>
-      </c>
-      <c r="K3" s="29">
-        <v>1448000000</v>
+      <c r="G3" s="25">
+        <v>578000000</v>
+      </c>
+      <c r="H3" s="25">
+        <v>786000000</v>
+      </c>
+      <c r="I3" s="25">
+        <v>1096000000</v>
+      </c>
+      <c r="J3" s="25">
+        <v>1389000000</v>
+      </c>
+      <c r="K3" s="25">
+        <v>1764000000</v>
       </c>
       <c r="L3" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="N3" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="O3" s="20" t="s">
         <v>110</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="O3" s="20" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -2973,23 +3102,23 @@
       </c>
       <c r="G4" s="16">
         <f t="shared" si="0"/>
-        <v>0.40374380575432278</v>
+        <v>0.41303364633576911</v>
       </c>
       <c r="H4" s="16">
         <f t="shared" si="0"/>
-        <v>0.34204110066179028</v>
+        <v>0.35986159169550169</v>
       </c>
       <c r="I4" s="16">
         <f t="shared" si="0"/>
-        <v>0.46638982610952495</v>
+        <v>0.3944020356234097</v>
       </c>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
-        <v>5.0442477876106118E-2</v>
+        <v>0.26733576642335777</v>
       </c>
       <c r="K4" s="16">
         <f t="shared" si="0"/>
-        <v>0.21988205560235885</v>
+        <v>0.26997840172786169</v>
       </c>
       <c r="L4" s="17">
         <f>(F4+E4+D4)/3</f>
@@ -3004,7 +3133,7 @@
         <v>-6.6853193075085677</v>
       </c>
       <c r="O4" s="17">
-        <f>(F105+E105+D105)/3</f>
+        <f>(F106+E106+D106)/3</f>
         <v>2.4672097071495824</v>
       </c>
       <c r="T4" s="16"/>
@@ -3065,16 +3194,16 @@
         <v>158178000</v>
       </c>
       <c r="L6" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="N6" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="O6" s="20" t="s">
         <v>114</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="O6" s="20" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3109,7 +3238,7 @@
         <v>-0.47770000000000001</v>
       </c>
       <c r="O7" s="21">
-        <f>F106/F3</f>
+        <f>F107/F3</f>
         <v>0.17878787137971244</v>
       </c>
     </row>
@@ -3135,7 +3264,7 @@
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3160,16 +3289,16 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="L9" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="N9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="N9" s="20" t="s">
+      <c r="O9" s="20" t="s">
         <v>98</v>
-      </c>
-      <c r="O9" s="20" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3248,21 +3377,21 @@
         <v>266296000</v>
       </c>
       <c r="L12" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="N12" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="M12" s="20" t="s">
+      <c r="O12" s="20" t="s">
         <v>118</v>
-      </c>
-      <c r="N12" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="O12" s="20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3308,19 +3437,19 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -3343,16 +3472,16 @@
         <v>347502000</v>
       </c>
       <c r="L15" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N15" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="M15" s="20" t="s">
+      <c r="O15" s="20" t="s">
         <v>122</v>
-      </c>
-      <c r="N15" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="O15" s="20" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3374,21 +3503,21 @@
       <c r="F16" s="1">
         <v>598373000</v>
       </c>
-      <c r="L16" s="30">
+      <c r="L16" s="26">
         <f>(F35+E35+D35+C35)/4</f>
         <v>-1.5396029518067946E-2</v>
       </c>
-      <c r="M16" s="31">
+      <c r="M16" s="33">
         <f>N101/F3</f>
-        <v>15.114333490608704</v>
-      </c>
-      <c r="N16" s="31">
+        <v>15.18661860070554</v>
+      </c>
+      <c r="N16" s="33">
         <f>N101/F28</f>
-        <v>-31.639430925513675</v>
-      </c>
-      <c r="O16" s="32">
-        <f>N101/F106</f>
-        <v>84.537800992711908</v>
+        <v>-31.79074819989253</v>
+      </c>
+      <c r="O16" s="35">
+        <f>N101/F107</f>
+        <v>84.9421075574638</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -3396,13 +3525,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1">
         <v>8570000</v>
@@ -3431,7 +3560,16 @@
         <v>29418000</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="N18" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="O18" s="20" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -3453,14 +3591,41 @@
       <c r="F19" s="10">
         <v>-184092000</v>
       </c>
-      <c r="L19" s="33">
+      <c r="G19" s="41">
+        <v>74000000</v>
+      </c>
+      <c r="H19" s="41">
+        <v>111000000</v>
+      </c>
+      <c r="I19" s="41">
+        <v>185000000</v>
+      </c>
+      <c r="J19" s="41">
+        <v>305000000</v>
+      </c>
+      <c r="K19" s="41">
+        <v>475000000</v>
+      </c>
+      <c r="L19" s="27">
         <f>F40-F56-F61</f>
         <v>208375000</v>
       </c>
+      <c r="M19" s="33">
+        <f>N101/G3</f>
+        <v>10.747527944636678</v>
+      </c>
+      <c r="N19" s="34">
+        <f>H116/G31</f>
+        <v>102.21621621621622</v>
+      </c>
+      <c r="O19" s="35">
+        <f>N101/G106</f>
+        <v>69.79855226966292</v>
+      </c>
     </row>
     <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -3479,8 +3644,28 @@
         <f>(F19/E19)-1</f>
         <v>1.8180078681096639</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="G20" s="16">
+        <f t="shared" ref="G20:K20" si="3">(G19/F19)-1</f>
+        <v>-1.4019729265801881</v>
+      </c>
+      <c r="H20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="J20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.64864864864864868</v>
+      </c>
+      <c r="K20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.55737704918032782</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3499,13 +3684,32 @@
       <c r="F21" s="2">
         <v>-0.45</v>
       </c>
-      <c r="L21" s="65" t="str" cm="1">
-        <f t="array" ref="L21">_FV(A1,"Description")</f>
-        <v>Global-E Online Ltd is an Israel-based company operates as a software publisher. It develops e-commerce platform Global-e which enable direct-to-consumer cross-border e-commerce. Through its end-to-end solutions that combine localization capabilities, big-data business intelligence models, international logistics and cross-border experience, it enables retailers and brands to increase international traffic conversion and sales and achieve global online growth. The Company operates from seven offices worldwide and is the chosen partner of retailers and brands across the United States, Europe and Asia.</v>
-      </c>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
+      <c r="G21" s="42">
+        <f>G19/G3</f>
+        <v>0.12802768166089964</v>
+      </c>
+      <c r="H21" s="42">
+        <f t="shared" ref="H21:K21" si="4">H19/H3</f>
+        <v>0.14122137404580154</v>
+      </c>
+      <c r="I21" s="42">
+        <f t="shared" si="4"/>
+        <v>0.16879562043795621</v>
+      </c>
+      <c r="J21" s="42">
+        <f t="shared" si="4"/>
+        <v>0.21958243340532757</v>
+      </c>
+      <c r="K21" s="42">
+        <f t="shared" si="4"/>
+        <v>0.26927437641723356</v>
+      </c>
+      <c r="N21" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="O21" s="20" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="22" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -3526,10 +3730,14 @@
       <c r="F22" s="10">
         <v>-189324000</v>
       </c>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
+      <c r="N22" s="36">
+        <f>(-1*F98)/N101</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="37">
+        <f>F107/N101</f>
+        <v>1.1772724138302014E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -3550,10 +3758,6 @@
       <c r="F23" s="2">
         <v>-0.46279999999999999</v>
       </c>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
     </row>
     <row r="24" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -3574,10 +3778,6 @@
       <c r="F24" s="1">
         <v>-12093000</v>
       </c>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="65"/>
     </row>
     <row r="25" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -3598,10 +3798,6 @@
       <c r="F25" s="10">
         <v>-201417000</v>
       </c>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="65"/>
     </row>
     <row r="26" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -3622,10 +3818,6 @@
       <c r="F26" s="2">
         <v>-0.4924</v>
       </c>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="65"/>
     </row>
     <row r="27" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -3646,10 +3838,6 @@
       <c r="F27" s="1">
         <v>-6012000</v>
       </c>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="65"/>
-      <c r="O27" s="65"/>
     </row>
     <row r="28" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
@@ -3670,14 +3858,25 @@
       <c r="F28" s="11">
         <v>-195405000</v>
       </c>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="65"/>
-      <c r="O28" s="65"/>
+      <c r="G28" s="38">
+        <v>61000000</v>
+      </c>
+      <c r="H28" s="38">
+        <v>94168000</v>
+      </c>
+      <c r="I28" s="38">
+        <v>181000000</v>
+      </c>
+      <c r="J28" s="38">
+        <v>135000000</v>
+      </c>
+      <c r="K28" s="38">
+        <v>229000000</v>
+      </c>
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -3696,10 +3895,26 @@
         <f>(F28/E28)-1</f>
         <v>1.607729571750764</v>
       </c>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="65"/>
-      <c r="O29" s="65"/>
+      <c r="G29" s="16">
+        <f t="shared" ref="G29:K29" si="5">(G28/F28)-1</f>
+        <v>-1.3121721552672654</v>
+      </c>
+      <c r="H29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.54373770491803275</v>
+      </c>
+      <c r="I29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.92209667827712183</v>
+      </c>
+      <c r="J29" s="16">
+        <f t="shared" si="5"/>
+        <v>-0.2541436464088398</v>
+      </c>
+      <c r="K29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.69629629629629619</v>
+      </c>
     </row>
     <row r="30" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -3720,10 +3935,26 @@
       <c r="F30" s="2">
         <v>-0.47770000000000001</v>
       </c>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="65"/>
-      <c r="O30" s="65"/>
+      <c r="G30" s="39">
+        <f>G28/G3</f>
+        <v>0.10553633217993079</v>
+      </c>
+      <c r="H30" s="39">
+        <f t="shared" ref="H30:K30" si="6">H28/H3</f>
+        <v>0.11980661577608143</v>
+      </c>
+      <c r="I30" s="39">
+        <f t="shared" si="6"/>
+        <v>0.16514598540145986</v>
+      </c>
+      <c r="J30" s="39">
+        <f t="shared" si="6"/>
+        <v>9.719222462203024E-2</v>
+      </c>
+      <c r="K30" s="39">
+        <f t="shared" si="6"/>
+        <v>0.12981859410430838</v>
+      </c>
     </row>
     <row r="31" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -3744,10 +3975,21 @@
       <c r="F31" s="12">
         <v>-1.71</v>
       </c>
-      <c r="L31" s="65"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="65"/>
-      <c r="O31" s="65"/>
+      <c r="G31" s="40">
+        <v>0.37</v>
+      </c>
+      <c r="H31" s="40">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I31" s="40">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J31" s="40">
+        <v>0.82</v>
+      </c>
+      <c r="K31" s="40">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="32" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -3768,12 +4010,8 @@
       <c r="F32" s="12">
         <v>-1.71</v>
       </c>
-      <c r="L32" s="65"/>
-      <c r="M32" s="65"/>
-      <c r="N32" s="65"/>
-      <c r="O32" s="65"/>
-    </row>
-    <row r="33" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
@@ -3792,12 +4030,8 @@
       <c r="F33" s="1">
         <v>114552727</v>
       </c>
-      <c r="L33" s="65"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="65"/>
-      <c r="O33" s="65"/>
-    </row>
-    <row r="34" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
@@ -3816,14 +4050,10 @@
       <c r="F34" s="1">
         <v>114552727</v>
       </c>
-      <c r="L34" s="65"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="65"/>
-      <c r="O34" s="65"/>
-    </row>
-    <row r="35" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="23">
@@ -3831,64 +4061,64 @@
         <v>0</v>
       </c>
       <c r="D35" s="23">
-        <f t="shared" ref="D35:F35" si="3">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:F35" si="7">(D34-C34)/C34</f>
         <v>0</v>
       </c>
       <c r="E35" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.1584118072271786E-2</v>
       </c>
       <c r="F35" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1">
         <v>5034000</v>
@@ -3903,12 +4133,12 @@
         <v>165033000</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1">
         <v>82000</v>
@@ -3923,12 +4153,12 @@
         <v>63166000</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1">
         <v>5116000</v>
@@ -3943,12 +4173,12 @@
         <v>228199000</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1">
         <v>23550000</v>
@@ -3963,32 +4193,32 @@
         <v>94549000</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1">
         <v>10653000</v>
@@ -4003,12 +4233,12 @@
         <v>51904000</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10">
         <v>39319000</v>
@@ -4023,12 +4253,12 @@
         <v>374652000</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1">
         <v>1895000</v>
@@ -4043,61 +4273,61 @@
         <v>30001000</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1">
         <v>466024000</v>
@@ -4108,19 +4338,19 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4128,16 +4358,16 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1">
         <v>171000</v>
@@ -4148,7 +4378,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1">
         <v>2385000</v>
@@ -4168,7 +4398,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1">
         <v>4280000</v>
@@ -4188,19 +4418,19 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -4208,7 +4438,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11">
         <v>43599000</v>
@@ -4228,7 +4458,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1">
         <v>9039000</v>
@@ -4248,13 +4478,13 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1">
         <v>2517000</v>
@@ -4268,19 +4498,19 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4288,19 +4518,19 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1">
         <v>4417000</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4308,7 +4538,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1">
         <v>32756000</v>
@@ -4328,7 +4558,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10">
         <v>41795000</v>
@@ -4348,13 +4578,13 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1">
         <v>18803000</v>
@@ -4368,19 +4598,19 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4388,7 +4618,7 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1">
         <v>38000</v>
@@ -4397,7 +4627,7 @@
         <v>105000</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1">
         <v>6558000</v>
@@ -4408,7 +4638,7 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1">
         <v>54796000</v>
@@ -4417,7 +4647,7 @@
         <v>121804000</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F64" s="1">
         <v>1762000</v>
@@ -4428,7 +4658,7 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1">
         <v>54834000</v>
@@ -4448,19 +4678,19 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4468,7 +4698,7 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10">
         <v>96629000</v>
@@ -4488,13 +4718,13 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1">
         <v>823550000</v>
@@ -4508,7 +4738,7 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1">
         <v>-56622000</v>
@@ -4528,7 +4758,7 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1">
         <v>-545000</v>
@@ -4548,7 +4778,7 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1">
         <v>4137000</v>
@@ -4557,10 +4787,10 @@
         <v>194916000</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4568,7 +4798,7 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10">
         <v>-53030000</v>
@@ -4588,7 +4818,7 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11">
         <v>43599000</v>
@@ -4608,19 +4838,19 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -4628,19 +4858,19 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4688,19 +4918,19 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4725,26 +4955,26 @@
     </row>
     <row r="80" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:F80" si="4">B79/B3</f>
+        <f t="shared" ref="B80:F80" si="8">B79/B3</f>
         <v>5.6677018633540374E-3</v>
       </c>
       <c r="C80" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.3560104476705339E-3</v>
       </c>
       <c r="D80" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.9008249312557285E-2</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.8928952926115286E-2</v>
       </c>
       <c r="F80" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.5120633469339855E-2</v>
       </c>
     </row>
@@ -4793,24 +5023,24 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1">
         <v>24000</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M83" s="66" t="s">
-        <v>126</v>
-      </c>
-      <c r="N83" s="67"/>
+        <v>91</v>
+      </c>
+      <c r="M83" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="N83" s="44"/>
     </row>
     <row r="84" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4831,10 +5061,10 @@
       <c r="F84" s="1">
         <v>16648000</v>
       </c>
-      <c r="M84" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="N84" s="69"/>
+      <c r="M84" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="N84" s="45"/>
     </row>
     <row r="85" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4855,10 +5085,10 @@
       <c r="F85" s="1">
         <v>-8939000</v>
       </c>
-      <c r="M85" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="N85" s="25">
+      <c r="M85" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="N85" s="47">
         <f>F17</f>
         <v>-12093000</v>
       </c>
@@ -4868,13 +5098,13 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1">
         <v>5000</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E86" s="1">
         <v>90334000</v>
@@ -4882,10 +5112,10 @@
       <c r="F86" s="1">
         <v>-1149000</v>
       </c>
-      <c r="M86" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="N86" s="25">
+      <c r="M86" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="N86" s="47">
         <f>F56</f>
         <v>3245000</v>
       </c>
@@ -4909,10 +5139,10 @@
       <c r="F87" s="10">
         <v>81485000</v>
       </c>
-      <c r="M87" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="N87" s="25">
+      <c r="M87" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="N87" s="47">
         <f>F61</f>
         <v>16579000</v>
       </c>
@@ -4936,42 +5166,42 @@
       <c r="F88" s="1">
         <v>-8352000</v>
       </c>
-      <c r="M88" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="N88" s="35">
+      <c r="M88" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="N88" s="49">
         <f>N85/(N86+N87)</f>
         <v>-0.61001815980629537</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" ref="B89:F89" si="9">(-1*B88)/B3</f>
+        <v>2.7950310559006213E-3</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.0089898560408191E-3</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.3437213565536204E-3</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.1754201423713887E-2</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.0418091720062877E-2</v>
+      </c>
+      <c r="M89" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15">
-        <f t="shared" ref="B89:F89" si="5">(-1*B88)/B3</f>
-        <v>2.7950310559006213E-3</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" si="5"/>
-        <v>4.0089898560408191E-3</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="5"/>
-        <v>3.3437213565536204E-3</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="5"/>
-        <v>1.1754201423713887E-2</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="5"/>
-        <v>2.0418091720062877E-2</v>
-      </c>
-      <c r="M89" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="N89" s="25">
+      <c r="N89" s="47">
         <f>F27</f>
         <v>-6012000</v>
       </c>
@@ -4981,24 +5211,24 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1">
         <v>-317483000</v>
       </c>
-      <c r="M90" s="24" t="s">
+      <c r="M90" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="N90" s="25">
+      <c r="N90" s="47">
         <f>F25</f>
         <v>-201417000</v>
       </c>
@@ -5022,10 +5252,10 @@
       <c r="F91" s="1">
         <v>-100265000</v>
       </c>
-      <c r="M91" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="N91" s="35">
+      <c r="M91" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="N91" s="49">
         <f>N89/N90</f>
         <v>2.9848523213035643E-2</v>
       </c>
@@ -5035,13 +5265,13 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1">
         <v>82405000</v>
@@ -5049,10 +5279,10 @@
       <c r="F92" s="1">
         <v>95999000</v>
       </c>
-      <c r="M92" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="N92" s="37">
+      <c r="M92" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="N92" s="49">
         <f>N88*(1-N91)</f>
         <v>-0.59181001860294391</v>
       </c>
@@ -5062,24 +5292,24 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M93" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="N93" s="69"/>
+        <v>91</v>
+      </c>
+      <c r="M93" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="N93" s="45"/>
     </row>
     <row r="94" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5100,11 +5330,12 @@
       <c r="F94" s="10">
         <v>-330101000</v>
       </c>
-      <c r="M94" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="N94" s="38">
-        <v>4.095E-2</v>
+      <c r="M94" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="N94" s="62">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.7190000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5112,24 +5343,24 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M95" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="N95" s="60">
+        <v>91</v>
+      </c>
+      <c r="M95" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="N95" s="52">
         <f>2.43</f>
         <v>2.4300000000000002</v>
       </c>
@@ -5139,24 +5370,24 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1">
         <v>396494000</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M96" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="N96" s="38">
+        <v>91</v>
+      </c>
+      <c r="M96" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="N96" s="50">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -5165,26 +5396,26 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M97" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="N97" s="37">
+        <v>91</v>
+      </c>
+      <c r="M97" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="N97" s="49">
         <f>(N94)+((N95)*(N96-N94))</f>
-        <v>0.14556150000000001</v>
+        <v>0.15093830000000003</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5192,24 +5423,24 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M98" s="68" t="s">
-        <v>139</v>
-      </c>
-      <c r="N98" s="69"/>
+        <v>91</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0</v>
+      </c>
+      <c r="M98" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="N98" s="45"/>
     </row>
     <row r="99" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5230,10 +5461,10 @@
       <c r="F99" s="1">
         <v>1239000</v>
       </c>
-      <c r="M99" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="N99" s="25">
+      <c r="M99" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="N99" s="47">
         <f>N86+N87</f>
         <v>19824000</v>
       </c>
@@ -5257,12 +5488,12 @@
       <c r="F100" s="10">
         <v>1239000</v>
       </c>
-      <c r="M100" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="N100" s="35">
+      <c r="M100" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="N100" s="49">
         <f>N99/N103</f>
-        <v>3.1962197413970593E-3</v>
+        <v>3.1810548021877247E-3</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5270,26 +5501,26 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M101" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="N101" s="39" cm="1">
+        <v>91</v>
+      </c>
+      <c r="M101" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="N101" s="53" cm="1">
         <f t="array" ref="N101">_FV(A1,"Market cap",TRUE)</f>
-        <v>6182503000</v>
+        <v>6212071152</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5311,12 +5542,12 @@
       <c r="F102" s="10">
         <v>-247377000</v>
       </c>
-      <c r="M102" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="N102" s="35">
+      <c r="M102" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="N102" s="49">
         <f>N101/N103</f>
-        <v>0.99680378025860294</v>
+        <v>0.99681894519781222</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5338,12 +5569,12 @@
       <c r="F103" s="1">
         <v>458899000</v>
       </c>
-      <c r="M103" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="N103" s="40">
+      <c r="M103" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="N103" s="54">
         <f>N99+N101</f>
-        <v>6202327000</v>
+        <v>6231895152</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5365,254 +5596,272 @@
       <c r="F104" s="11">
         <v>211522000</v>
       </c>
-      <c r="M104" s="68" t="s">
-        <v>145</v>
-      </c>
-      <c r="N104" s="69"/>
+      <c r="M104" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="N104" s="45"/>
     </row>
     <row r="105" spans="1:14" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
+        <v>162</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:E105" si="10">(B22*(1-$N$91))+B77+B88+B81</f>
+        <v>-6789232.0260951165</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="10"/>
+        <v>9278780.0384277403</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="10"/>
+        <v>29185884.37420873</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="10"/>
+        <v>-78235205.662878513</v>
+      </c>
+      <c r="F105" s="1">
+        <f>(F22*(1-$N$91))+F77+F88+F81</f>
+        <v>47105041.808784753</v>
+      </c>
+      <c r="G105" s="28">
+        <f>F105*(1+$N$106)</f>
+        <v>63164200.455584705</v>
+      </c>
+      <c r="H105" s="28">
+        <f t="shared" ref="H105:K105" si="11">G105*(1+$N$106)</f>
+        <v>84698284.217406929</v>
+      </c>
+      <c r="I105" s="28">
+        <f t="shared" si="11"/>
+        <v>113573817.09307091</v>
+      </c>
+      <c r="J105" s="28">
+        <f t="shared" si="11"/>
+        <v>152293662.71435475</v>
+      </c>
+      <c r="K105" s="28">
+        <f t="shared" si="11"/>
+        <v>204213966.7098383</v>
+      </c>
+      <c r="L105" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="M105" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="N105" s="56">
+        <f>(N100*N92)+(N102*N97)</f>
+        <v>0.14857557689429127</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f>(C107/B107)-1</f>
         <v>-1.8355775169857937</v>
       </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
+      <c r="D106" s="15">
+        <f>(D107/C107)-1</f>
         <v>3.2717327025428737</v>
       </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
+      <c r="E106" s="15">
+        <f>(E107/D107)-1</f>
         <v>-0.55475185159548701</v>
       </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
+      <c r="F106" s="15">
+        <f>(F107/E107)-1</f>
         <v>4.6846482705013601</v>
       </c>
-      <c r="G105" s="61">
-        <v>88178000</v>
-      </c>
-      <c r="H105" s="61">
-        <v>130900000</v>
-      </c>
-      <c r="I105" s="61">
-        <v>199700000</v>
-      </c>
-      <c r="J105" s="61">
-        <v>317300000</v>
-      </c>
-      <c r="K105" s="61">
-        <v>478800000</v>
-      </c>
-      <c r="L105" s="15"/>
-      <c r="M105" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="N105" s="27">
-        <f>(N100*N92)+(N102*N97)</f>
-        <v>0.14320469859549737</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
+      <c r="G106" s="31">
+        <v>89000000</v>
+      </c>
+      <c r="H106" s="31">
+        <v>129500000</v>
+      </c>
+      <c r="I106" s="31">
+        <v>198200000</v>
+      </c>
+      <c r="J106" s="31">
+        <v>318800000</v>
+      </c>
+      <c r="K106" s="31">
+        <v>479900000</v>
+      </c>
+      <c r="L106" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="M106" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="N106" s="58">
+        <f>(SUM(G4:K4)/5)</f>
+        <v>0.34092228836117999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="70" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="1">
         <v>-8095000</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C107" s="1">
         <v>6764000</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D107" s="1">
         <v>28894000</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E107" s="1">
         <v>12865000</v>
       </c>
-      <c r="F106" s="1">
+      <c r="F107" s="1">
         <v>73133000</v>
       </c>
-      <c r="G106" s="41">
-        <f>F106*(1+$N$106)</f>
-        <v>94816923.764135599</v>
-      </c>
-      <c r="H106" s="41">
-        <f t="shared" ref="H106:K106" si="6">G106*(1+$N$106)</f>
-        <v>122930127.74115519</v>
-      </c>
-      <c r="I106" s="41">
-        <f t="shared" si="6"/>
-        <v>159378892.57036582</v>
-      </c>
-      <c r="J106" s="41">
-        <f t="shared" si="6"/>
-        <v>206634710.82078862</v>
-      </c>
-      <c r="K106" s="41">
-        <f t="shared" si="6"/>
-        <v>267901872.24534646</v>
-      </c>
-      <c r="L106" s="42" t="s">
+      <c r="G107" s="29"/>
+      <c r="H107" s="29"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="29"/>
+      <c r="K107" s="32">
+        <f>K106*(1+N107)/(N108-N107)</f>
+        <v>3980539782.7175651</v>
+      </c>
+      <c r="L107" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="M107" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="M106" s="43" t="s">
+      <c r="N107" s="60">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="G108" s="32">
+        <f t="shared" ref="G108:J108" si="12">G107+G106</f>
+        <v>89000000</v>
+      </c>
+      <c r="H108" s="32">
+        <f t="shared" si="12"/>
+        <v>129500000</v>
+      </c>
+      <c r="I108" s="32">
+        <f t="shared" si="12"/>
+        <v>198200000</v>
+      </c>
+      <c r="J108" s="32">
+        <f t="shared" si="12"/>
+        <v>318800000</v>
+      </c>
+      <c r="K108" s="32">
+        <f>K107+K106</f>
+        <v>4460439782.7175655</v>
+      </c>
+      <c r="L108" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="M108" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="N106" s="44">
-        <f>(SUM(G4:K4)/5)</f>
-        <v>0.29649985320082062</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="42"/>
-      <c r="H107" s="42"/>
-      <c r="I107" s="42"/>
-      <c r="J107" s="42"/>
-      <c r="K107" s="62">
-        <f>K105*(1+N107)/(N108-N107)</f>
-        <v>4151865415.091835</v>
-      </c>
-      <c r="L107" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="M107" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="N107" s="48">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G108" s="45">
-        <f t="shared" ref="G108:I108" si="7">G107+G106</f>
-        <v>94816923.764135599</v>
-      </c>
-      <c r="H108" s="45">
-        <f t="shared" si="7"/>
-        <v>122930127.74115519</v>
-      </c>
-      <c r="I108" s="45">
-        <f t="shared" si="7"/>
-        <v>159378892.57036582</v>
-      </c>
-      <c r="J108" s="45">
-        <f>J107+J106</f>
-        <v>206634710.82078862</v>
-      </c>
-      <c r="K108" s="62">
-        <f>K107+K105</f>
-        <v>4630665415.091835</v>
-      </c>
-      <c r="L108" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="M108" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="N108" s="50">
+      <c r="N108" s="58">
         <f>N105</f>
-        <v>0.14320469859549737</v>
+        <v>0.14857557689429127</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="G109" s="63" t="s">
-        <v>151</v>
-      </c>
-      <c r="H109" s="64"/>
+        <v>148</v>
+      </c>
+      <c r="H109" s="63"/>
     </row>
     <row r="110" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G110" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="H110" s="39">
+      <c r="G110" s="64" t="s">
+        <v>149</v>
+      </c>
+      <c r="H110" s="53">
         <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>2776154516.9028864</v>
+        <v>2721049061.7369843</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G111" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="H111" s="39">
+      <c r="G111" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="H111" s="53">
         <f>F40</f>
         <v>228199000</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G112" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="H112" s="39">
+      <c r="G112" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="H112" s="53">
         <f>N99</f>
         <v>19824000</v>
       </c>
     </row>
     <row r="113" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G113" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="H113" s="39">
+      <c r="G113" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="H113" s="53">
         <f>H110+H111-H112</f>
-        <v>2984529516.9028864</v>
+        <v>2929424061.7369843</v>
       </c>
     </row>
     <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G114" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="H114" s="52">
+      <c r="G114" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="H114" s="64">
         <f>F34*(1+(L16*4))</f>
         <v>107498098.33493128</v>
       </c>
     </row>
     <row r="115" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G115" s="53" t="s">
+      <c r="G115" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="H115" s="66">
+        <f>H113/H114</f>
+        <v>27.250938454834731</v>
+      </c>
+    </row>
+    <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="G116" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="H116" s="67" cm="1">
+        <f t="array" ref="H116">_FV(A1,"Price")</f>
+        <v>37.82</v>
+      </c>
+    </row>
+    <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="G117" s="65" t="s">
+        <v>154</v>
+      </c>
+      <c r="H117" s="68">
+        <f>H115/H116-1</f>
+        <v>-0.27945694196629478</v>
+      </c>
+    </row>
+    <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="G118" s="65" t="s">
         <v>155</v>
       </c>
-      <c r="H115" s="54">
-        <f>H113/H114</f>
-        <v>27.763556408263174</v>
-      </c>
-    </row>
-    <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G116" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="H116" s="55" cm="1">
-        <f t="array" ref="H116">_FV(A1,"Price")</f>
-        <v>37.33</v>
-      </c>
-    </row>
-    <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G117" s="56" t="s">
-        <v>157</v>
-      </c>
-      <c r="H117" s="57">
-        <f>H115/H116-1</f>
-        <v>-0.25626690575239286</v>
-      </c>
-    </row>
-    <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G118" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="H118" s="58" t="str">
+      <c r="H118" s="69" t="str">
         <f>IF(H115&gt;H116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="G109:H109"/>
-    <mergeCell ref="L21:O34"/>
     <mergeCell ref="M83:N83"/>
     <mergeCell ref="M84:N84"/>
     <mergeCell ref="M93:N93"/>
@@ -5632,8 +5881,9 @@
     <hyperlink ref="F36" r:id="rId10" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="F74" r:id="rId11" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="G1" r:id="rId12" display="https://finbox.com/NASDAQGS:GLBE/explorer/revenue_proj" xr:uid="{C0434844-80A7-6B42-92EC-6EAE982712E4}"/>
+    <hyperlink ref="L106" r:id="rId13" xr:uid="{8258D5EF-5D6F-6A43-8219-F56043C9B7F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId13"/>
+  <drawing r:id="rId14"/>
 </worksheet>
 </file>
--- a/Technology/Software/Global-E.xlsx
+++ b/Technology/Software/Global-E.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A1FA00-CD6B-0A4B-A87C-63BDE6241005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72340D08-3889-C447-92E4-3C5057E4DCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40960" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -586,8 +586,8 @@
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -875,7 +875,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -935,19 +935,19 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -955,65 +955,64 @@
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2196,10 +2195,11 @@
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
       <sheetName val="My Holdings"/>
+      <sheetName val="My Stocks"/>
       <sheetName val="Stable Growth"/>
       <sheetName val="High Growth"/>
+      <sheetName val="Small Caps"/>
       <sheetName val="Compounders"/>
-      <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
@@ -2217,7 +2217,7 @@
       <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.7190000000000001E-2</v>
+            <v>4.0410000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2230,6 +2230,7 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2355,10 +2356,12 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>39</v>
+    <v>44.189900000000002</v>
     <v>18.14</v>
-    <v>1.17</v>
-    <v>3.1924000000000001E-2</v>
+    <v>-0.48</v>
+    <v>-1.1235999999999999E-2</v>
+    <v>0.04</v>
+    <v>9.4700000000000003E-4</v>
     <v>USD</v>
     <v>Global-E Online Ltd is an Israel-based company operates as a software publisher. It develops e-commerce platform Global-e which enable direct-to-consumer cross-border e-commerce. Through its end-to-end solutions that combine localization capabilities, big-data business intelligence models, international logistics and cross-border experience, it enables retailers and brands to increase international traffic conversion and sales and achieve global online growth. The Company operates from seven offices worldwide and is the chosen partner of retailers and brands across the United States, Europe and Asia.</v>
     <v>767</v>
@@ -2366,24 +2369,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>25 Basel Street, PETAH TIKVA, 4951038 IL</v>
-    <v>37.97</v>
+    <v>44.189900000000002</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45104.991532835156</v>
+    <v>45114.98016810156</v>
     <v>0</v>
-    <v>36.71</v>
-    <v>6212071152</v>
+    <v>41.78</v>
+    <v>6938070000</v>
     <v>GLOBAL-E ONLINE LTD</v>
     <v>GLOBAL-E ONLINE LTD</v>
-    <v>37.06</v>
+    <v>42.78</v>
     <v>8554.902</v>
-    <v>36.65</v>
-    <v>37.82</v>
+    <v>42.72</v>
+    <v>42.24</v>
+    <v>42.28</v>
     <v>164253600</v>
     <v>GLBE</v>
     <v>GLOBAL-E ONLINE LTD (XNAS:GLBE)</v>
-    <v>1</v>
-    <v>1698350</v>
+    <v>1078085</v>
+    <v>1601856</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -2414,6 +2418,8 @@
     <k n="52 week low"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2434,6 +2440,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2450,7 +2457,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="41">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2461,13 +2468,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2531,13 +2541,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2581,6 +2597,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2588,6 +2607,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2949,10 +2971,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M34" sqref="M34"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3509,15 +3531,15 @@
       </c>
       <c r="M16" s="33">
         <f>N101/F3</f>
-        <v>15.18661860070554</v>
+        <v>16.961464274451227</v>
       </c>
       <c r="N16" s="33">
         <f>N101/F28</f>
-        <v>-31.79074819989253</v>
+        <v>-35.506102709756661</v>
       </c>
       <c r="O16" s="35">
         <f>N101/F107</f>
-        <v>84.9421075574638</v>
+        <v>94.869210889748814</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -3612,15 +3634,15 @@
       </c>
       <c r="M19" s="33">
         <f>N101/G3</f>
-        <v>10.747527944636678</v>
+        <v>12.003581314878893</v>
       </c>
       <c r="N19" s="34">
         <f>H116/G31</f>
-        <v>102.21621621621622</v>
+        <v>114.16216216216218</v>
       </c>
       <c r="O19" s="35">
         <f>N101/G106</f>
-        <v>69.79855226966292</v>
+        <v>77.955842696629219</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3736,7 +3758,7 @@
       </c>
       <c r="O22" s="37">
         <f>F107/N101</f>
-        <v>1.1772724138302014E-2</v>
+        <v>1.05408276365041E-2</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5037,10 +5059,10 @@
       <c r="F83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M83" s="43" t="s">
+      <c r="M83" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="N83" s="44"/>
+      <c r="N83" s="68"/>
     </row>
     <row r="84" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -5061,10 +5083,10 @@
       <c r="F84" s="1">
         <v>16648000</v>
       </c>
-      <c r="M84" s="45" t="s">
+      <c r="M84" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="N84" s="45"/>
+      <c r="N84" s="69"/>
     </row>
     <row r="85" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -5085,10 +5107,10 @@
       <c r="F85" s="1">
         <v>-8939000</v>
       </c>
-      <c r="M85" s="46" t="s">
+      <c r="M85" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="N85" s="47">
+      <c r="N85" s="44">
         <f>F17</f>
         <v>-12093000</v>
       </c>
@@ -5112,10 +5134,10 @@
       <c r="F86" s="1">
         <v>-1149000</v>
       </c>
-      <c r="M86" s="46" t="s">
+      <c r="M86" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="N86" s="47">
+      <c r="N86" s="44">
         <f>F56</f>
         <v>3245000</v>
       </c>
@@ -5139,10 +5161,10 @@
       <c r="F87" s="10">
         <v>81485000</v>
       </c>
-      <c r="M87" s="46" t="s">
+      <c r="M87" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="N87" s="47">
+      <c r="N87" s="44">
         <f>F61</f>
         <v>16579000</v>
       </c>
@@ -5166,10 +5188,10 @@
       <c r="F88" s="1">
         <v>-8352000</v>
       </c>
-      <c r="M88" s="48" t="s">
+      <c r="M88" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="N88" s="49">
+      <c r="N88" s="46">
         <f>N85/(N86+N87)</f>
         <v>-0.61001815980629537</v>
       </c>
@@ -5198,10 +5220,10 @@
         <f t="shared" si="9"/>
         <v>2.0418091720062877E-2</v>
       </c>
-      <c r="M89" s="46" t="s">
+      <c r="M89" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="N89" s="47">
+      <c r="N89" s="44">
         <f>F27</f>
         <v>-6012000</v>
       </c>
@@ -5225,10 +5247,10 @@
       <c r="F90" s="1">
         <v>-317483000</v>
       </c>
-      <c r="M90" s="46" t="s">
+      <c r="M90" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="N90" s="47">
+      <c r="N90" s="44">
         <f>F25</f>
         <v>-201417000</v>
       </c>
@@ -5252,10 +5274,10 @@
       <c r="F91" s="1">
         <v>-100265000</v>
       </c>
-      <c r="M91" s="48" t="s">
+      <c r="M91" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="N91" s="49">
+      <c r="N91" s="46">
         <f>N89/N90</f>
         <v>2.9848523213035643E-2</v>
       </c>
@@ -5279,10 +5301,10 @@
       <c r="F92" s="1">
         <v>95999000</v>
       </c>
-      <c r="M92" s="48" t="s">
+      <c r="M92" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="N92" s="49">
+      <c r="N92" s="46">
         <f>N88*(1-N91)</f>
         <v>-0.59181001860294391</v>
       </c>
@@ -5306,10 +5328,10 @@
       <c r="F93" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M93" s="45" t="s">
+      <c r="M93" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="N93" s="45"/>
+      <c r="N93" s="69"/>
     </row>
     <row r="94" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5330,12 +5352,12 @@
       <c r="F94" s="10">
         <v>-330101000</v>
       </c>
-      <c r="M94" s="46" t="s">
+      <c r="M94" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="N94" s="62">
+      <c r="N94" s="47">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7190000000000001E-2</v>
+        <v>4.0410000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5357,10 +5379,10 @@
       <c r="F95" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M95" s="51" t="s">
+      <c r="M95" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="N95" s="52">
+      <c r="N95" s="49">
         <f>2.43</f>
         <v>2.4300000000000002</v>
       </c>
@@ -5384,10 +5406,10 @@
       <c r="F96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M96" s="46" t="s">
+      <c r="M96" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="N96" s="50">
+      <c r="N96" s="47">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -5410,12 +5432,12 @@
       <c r="F97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M97" s="48" t="s">
+      <c r="M97" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="N97" s="49">
+      <c r="N97" s="46">
         <f>(N94)+((N95)*(N96-N94))</f>
-        <v>0.15093830000000003</v>
+        <v>0.14633370000000001</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5437,10 +5459,10 @@
       <c r="F98" s="1">
         <v>0</v>
       </c>
-      <c r="M98" s="45" t="s">
+      <c r="M98" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="N98" s="45"/>
+      <c r="N98" s="69"/>
     </row>
     <row r="99" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5461,10 +5483,10 @@
       <c r="F99" s="1">
         <v>1239000</v>
       </c>
-      <c r="M99" s="46" t="s">
+      <c r="M99" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="N99" s="47">
+      <c r="N99" s="44">
         <f>N86+N87</f>
         <v>19824000</v>
       </c>
@@ -5488,12 +5510,12 @@
       <c r="F100" s="10">
         <v>1239000</v>
       </c>
-      <c r="M100" s="48" t="s">
+      <c r="M100" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="N100" s="49">
+      <c r="N100" s="46">
         <f>N99/N103</f>
-        <v>3.1810548021877247E-3</v>
+        <v>2.8491379719208141E-3</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5515,12 +5537,12 @@
       <c r="F101" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M101" s="46" t="s">
+      <c r="M101" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="N101" s="53" cm="1">
+      <c r="N101" s="50" cm="1">
         <f t="array" ref="N101">_FV(A1,"Market cap",TRUE)</f>
-        <v>6212071152</v>
+        <v>6938070000</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5542,12 +5564,12 @@
       <c r="F102" s="10">
         <v>-247377000</v>
       </c>
-      <c r="M102" s="48" t="s">
+      <c r="M102" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="N102" s="49">
+      <c r="N102" s="46">
         <f>N101/N103</f>
-        <v>0.99681894519781222</v>
+        <v>0.99715086202807923</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5569,12 +5591,12 @@
       <c r="F103" s="1">
         <v>458899000</v>
       </c>
-      <c r="M103" s="48" t="s">
+      <c r="M103" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="N103" s="54">
+      <c r="N103" s="51">
         <f>N99+N101</f>
-        <v>6231895152</v>
+        <v>6957894000</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5596,10 +5618,10 @@
       <c r="F104" s="11">
         <v>211522000</v>
       </c>
-      <c r="M104" s="45" t="s">
+      <c r="M104" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="N104" s="45"/>
+      <c r="N104" s="69"/>
     </row>
     <row r="105" spans="1:14" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -5648,12 +5670,12 @@
       <c r="L105" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="M105" s="55" t="s">
+      <c r="M105" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="N105" s="56">
+      <c r="N105" s="53">
         <f>(N100*N92)+(N102*N97)</f>
-        <v>0.14857557689429127</v>
+        <v>0.14423062670259354</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5695,16 +5717,16 @@
       <c r="L106" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="M106" s="57" t="s">
+      <c r="M106" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="N106" s="58">
+      <c r="N106" s="55">
         <f>(SUM(G4:K4)/5)</f>
         <v>0.34092228836117999</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="70" t="s">
+      <c r="A107" s="65" t="s">
         <v>164</v>
       </c>
       <c r="B107" s="1">
@@ -5728,15 +5750,15 @@
       <c r="J107" s="29"/>
       <c r="K107" s="32">
         <f>K106*(1+N107)/(N108-N107)</f>
-        <v>3980539782.7175651</v>
+        <v>4125596867.2124743</v>
       </c>
       <c r="L107" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="M107" s="59" t="s">
+      <c r="M107" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="N107" s="60">
+      <c r="N107" s="57">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -5759,102 +5781,102 @@
       </c>
       <c r="K108" s="32">
         <f>K107+K106</f>
-        <v>4460439782.7175655</v>
+        <v>4605496867.2124748</v>
       </c>
       <c r="L108" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="M108" s="61" t="s">
+      <c r="M108" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="N108" s="58">
+      <c r="N108" s="55">
         <f>N105</f>
-        <v>0.14857557689429127</v>
+        <v>0.14423062670259354</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G109" s="63" t="s">
+      <c r="G109" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="H109" s="63"/>
+      <c r="H109" s="66"/>
     </row>
     <row r="110" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G110" s="64" t="s">
+      <c r="G110" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="H110" s="53">
+      <c r="H110" s="50">
         <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>2721049061.7369843</v>
+        <v>2843029163.3433595</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G111" s="64" t="s">
+      <c r="G111" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="H111" s="53">
+      <c r="H111" s="50">
         <f>F40</f>
         <v>228199000</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G112" s="64" t="s">
+      <c r="G112" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="H112" s="53">
+      <c r="H112" s="50">
         <f>N99</f>
         <v>19824000</v>
       </c>
     </row>
     <row r="113" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G113" s="64" t="s">
+      <c r="G113" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="H113" s="53">
+      <c r="H113" s="50">
         <f>H110+H111-H112</f>
-        <v>2929424061.7369843</v>
+        <v>3051404163.3433595</v>
       </c>
     </row>
     <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G114" s="64" t="s">
+      <c r="G114" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="H114" s="64">
+      <c r="H114" s="59">
         <f>F34*(1+(L16*4))</f>
         <v>107498098.33493128</v>
       </c>
     </row>
     <row r="115" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G115" s="65" t="s">
+      <c r="G115" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="H115" s="66">
+      <c r="H115" s="61">
         <f>H113/H114</f>
-        <v>27.250938454834731</v>
+        <v>28.385657147497763</v>
       </c>
     </row>
     <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G116" s="64" t="s">
+      <c r="G116" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="H116" s="67" cm="1">
+      <c r="H116" s="62" cm="1">
         <f t="array" ref="H116">_FV(A1,"Price")</f>
-        <v>37.82</v>
+        <v>42.24</v>
       </c>
     </row>
     <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G117" s="65" t="s">
+      <c r="G117" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="H117" s="68">
+      <c r="H117" s="63">
         <f>H115/H116-1</f>
-        <v>-0.27945694196629478</v>
+        <v>-0.3279910713187083</v>
       </c>
     </row>
     <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G118" s="65" t="s">
+      <c r="G118" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="H118" s="69" t="str">
+      <c r="H118" s="64" t="str">
         <f>IF(H115&gt;H116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Software/Global-E.xlsx
+++ b/Technology/Software/Global-E.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72340D08-3889-C447-92E4-3C5057E4DCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AFFE18-2DDE-B543-88E6-7CA0F781C655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40960" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2179,9 +2179,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2190,20 +2188,23 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="My Stocks"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="Small Caps"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
-      <sheetName val="Private Companies"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2214,23 +2215,12 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
-        <row r="8">
-          <cell r="C8">
-            <v>4.0410000000000001E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2971,10 +2961,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5357,7 +5347,7 @@
       </c>
       <c r="N94" s="47">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0410000000000001E-2</v>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5437,7 +5427,7 @@
       </c>
       <c r="N97" s="46">
         <f>(N94)+((N95)*(N96-N94))</f>
-        <v>0.14633370000000001</v>
+        <v>0.14817840000000002</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5675,7 +5665,7 @@
       </c>
       <c r="N105" s="53">
         <f>(N100*N92)+(N102*N97)</f>
-        <v>0.14423062670259354</v>
+        <v>0.14607007089777674</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5750,7 +5740,7 @@
       <c r="J107" s="29"/>
       <c r="K107" s="32">
         <f>K106*(1+N107)/(N108-N107)</f>
-        <v>4125596867.2124743</v>
+        <v>4062915767.3106875</v>
       </c>
       <c r="L107" s="30" t="s">
         <v>145</v>
@@ -5781,7 +5771,7 @@
       </c>
       <c r="K108" s="32">
         <f>K107+K106</f>
-        <v>4605496867.2124748</v>
+        <v>4542815767.310688</v>
       </c>
       <c r="L108" s="30" t="s">
         <v>142</v>
@@ -5791,7 +5781,7 @@
       </c>
       <c r="N108" s="55">
         <f>N105</f>
-        <v>0.14423062670259354</v>
+        <v>0.14607007089777674</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5806,7 +5796,7 @@
       </c>
       <c r="H110" s="50">
         <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>2843029163.3433595</v>
+        <v>2790275597.6788707</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5833,7 +5823,7 @@
       </c>
       <c r="H113" s="50">
         <f>H110+H111-H112</f>
-        <v>3051404163.3433595</v>
+        <v>2998650597.6788707</v>
       </c>
     </row>
     <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5851,7 +5841,7 @@
       </c>
       <c r="H115" s="61">
         <f>H113/H114</f>
-        <v>28.385657147497763</v>
+        <v>27.894917622970315</v>
       </c>
     </row>
     <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5869,7 +5859,7 @@
       </c>
       <c r="H117" s="63">
         <f>H115/H116-1</f>
-        <v>-0.3279910713187083</v>
+        <v>-0.3396089577895286</v>
       </c>
     </row>
     <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Global-E.xlsx
+++ b/Technology/Software/Global-E.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AFFE18-2DDE-B543-88E6-7CA0F781C655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1ABBD58-E30F-9A4E-8B5B-15729C736223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -558,9 +558,6 @@
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>FCF Yield</t>
-  </si>
-  <si>
     <t>Unlevered FCF</t>
   </si>
   <si>
@@ -570,10 +567,16 @@
     <t>Levered FCF</t>
   </si>
   <si>
-    <t>Unlevered FCF Proj</t>
-  </si>
-  <si>
     <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>5Y Fwd Income CAGR</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
   </si>
 </sst>
 </file>
@@ -589,7 +592,7 @@
     <numFmt numFmtId="169" formatCode="0.0"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -701,6 +704,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -875,7 +885,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -928,13 +938,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -958,58 +961,120 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1066,18 +1131,9 @@
               <a:rPr lang="en-US" sz="2400"/>
               <a:t>Global-E</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.44708457711442784"/>
-          <c:y val="2.9101494785676658E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1111,15 +1167,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.9582037319961871E-2"/>
-          <c:y val="0.14413970367345652"/>
-          <c:w val="0.86469656964521213"/>
-          <c:h val="0.71364060387205686"/>
+          <c:x val="9.463349917081261E-2"/>
+          <c:y val="0.14293597679588083"/>
+          <c:w val="0.83637810945273627"/>
+          <c:h val="0.67476538341409598"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1170,10 +1226,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$1:$F$1</c:f>
+              <c:f>'Sheet 1'!$B$1:$K$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2018</c:v>
                 </c:pt>
@@ -1189,15 +1245,30 @@
                 <c:pt idx="4">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2027</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$F$3</c:f>
+              <c:f>'Sheet 1'!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>38640000</c:v>
                 </c:pt>
@@ -1213,12 +1284,27 @@
                 <c:pt idx="4">
                   <c:v>409049000</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>578000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>786000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1096000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1389000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1764000000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8619-3E46-8E4E-C9F5EBD800A9}"/>
+              <c16:uniqueId val="{00000000-C4CD-834F-B8D4-88ED3CCD5412}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1271,10 +1357,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$1:$F$1</c:f>
+              <c:f>'Sheet 1'!$B$1:$K$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2018</c:v>
                 </c:pt>
@@ -1290,15 +1376,30 @@
                 <c:pt idx="4">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2027</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$28:$F$28</c:f>
+              <c:f>'Sheet 1'!$B$28:$K$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>-11593000</c:v>
                 </c:pt>
@@ -1314,12 +1415,27 @@
                 <c:pt idx="4">
                   <c:v>-195405000</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>61000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94168000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>181000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>135000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>229000000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8619-3E46-8E4E-C9F5EBD800A9}"/>
+              <c16:uniqueId val="{00000001-C4CD-834F-B8D4-88ED3CCD5412}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1372,10 +1488,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$1:$F$1</c:f>
+              <c:f>'Sheet 1'!$B$1:$K$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2018</c:v>
                 </c:pt>
@@ -1391,15 +1507,30 @@
                 <c:pt idx="4">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2027</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$107:$F$107</c:f>
+              <c:f>'Sheet 1'!$B$107:$K$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>-8095000</c:v>
                 </c:pt>
@@ -1415,12 +1546,27 @@
                 <c:pt idx="4">
                   <c:v>73133000</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>103000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>146000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>214020000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>316000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>479900000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8619-3E46-8E4E-C9F5EBD800A9}"/>
+              <c16:uniqueId val="{00000002-C4CD-834F-B8D4-88ED3CCD5412}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1432,13 +1578,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="1438885488"/>
-        <c:axId val="1438887216"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1519381040"/>
+        <c:axId val="1515218768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1438885488"/>
+        <c:axId val="1519381040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1478,7 +1624,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1438887216"/>
+        <c:crossAx val="1515218768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1486,10 +1632,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1438887216"/>
+        <c:axId val="1515218768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="-200000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1535,7 +1680,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1438885488"/>
+        <c:crossAx val="1519381040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1553,10 +1698,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.33728261579242891"/>
-          <c:y val="0.89960419675635206"/>
+          <c:x val="0.34391611496324154"/>
+          <c:y val="0.87387166682800932"/>
           <c:w val="0.31482106527728809"/>
-          <c:h val="5.9653710543700708E-2"/>
+          <c:h val="5.9437495547855754E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1663,7 +1808,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1901,7 +2046,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2137,21 +2281,21 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>31749</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1587499</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>15874</xdr:rowOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6104C461-F42C-0206-5A6E-E6D66EA12E96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD27361E-A6EF-92D1-FCD7-F45E501BD9D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2179,38 +2323,38 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Treasuries"/>
+      <sheetName val="Software"/>
       <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
       <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Growth"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>3.9120000000000002E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="8">
+          <cell r="C8">
+            <v>4.9020000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
@@ -2346,12 +2490,12 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>44.189900000000002</v>
+    <v>45.72</v>
     <v>18.14</v>
-    <v>-0.48</v>
-    <v>-1.1235999999999999E-2</v>
-    <v>0.04</v>
-    <v>9.4700000000000003E-4</v>
+    <v>-0.51</v>
+    <v>-1.4226000000000001E-2</v>
+    <v>-0.25</v>
+    <v>-7.0740000000000004E-3</v>
     <v>USD</v>
     <v>Global-E Online Ltd is an Israel-based company operates as a software publisher. It develops e-commerce platform Global-e which enable direct-to-consumer cross-border e-commerce. Through its end-to-end solutions that combine localization capabilities, big-data business intelligence models, international logistics and cross-border experience, it enables retailers and brands to increase international traffic conversion and sales and achieve global online growth. The Company operates from seven offices worldwide and is the chosen partner of retailers and brands across the United States, Europe and Asia.</v>
     <v>767</v>
@@ -2359,25 +2503,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>25 Basel Street, PETAH TIKVA, 4951038 IL</v>
-    <v>44.189900000000002</v>
+    <v>36.314999999999998</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45114.98016810156</v>
+    <v>45218.936097719532</v>
     <v>0</v>
-    <v>41.78</v>
-    <v>6938070000</v>
+    <v>35.08</v>
+    <v>5804722224</v>
     <v>GLOBAL-E ONLINE LTD</v>
     <v>GLOBAL-E ONLINE LTD</v>
-    <v>42.78</v>
-    <v>8554.902</v>
-    <v>42.72</v>
-    <v>42.24</v>
-    <v>42.28</v>
+    <v>35.89</v>
+    <v>35.85</v>
+    <v>35.340000000000003</v>
+    <v>35.090000000000003</v>
     <v>164253600</v>
     <v>GLBE</v>
     <v>GLOBAL-E ONLINE LTD (XNAS:GLBE)</v>
-    <v>1078085</v>
-    <v>1601856</v>
+    <v>721385</v>
+    <v>1094605</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -2427,7 +2570,6 @@
     <k n="Name" t="s"/>
     <k n="Official name" t="s"/>
     <k n="Open"/>
-    <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
     <k n="Price (Extended hours)"/>
@@ -2447,7 +2589,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="44">
+    <a count="43">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2478,7 +2620,6 @@
       <v t="s">Volume</v>
       <v t="s">Volume average</v>
       <v t="s">Market cap</v>
-      <v t="s">P/E</v>
       <v t="s">Shares outstanding</v>
       <v t="s">Description</v>
       <v t="s">Employees</v>
@@ -2513,27 +2654,26 @@
     </spb>
     <spb s="3">
       <v>1</v>
+      <v>1</v>
       <v>2</v>
       <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>3</v>
+      <v>3</v>
+      <v>4</v>
+      <v>5</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>3</v>
+      <v>6</v>
+      <v>7</v>
+      <v>8</v>
       <v>3</v>
       <v>1</v>
       <v>1</v>
-      <v>1</v>
       <v>4</v>
-      <v>4</v>
-      <v>5</v>
-      <v>6</v>
-      <v>1</v>
-      <v>1</v>
-      <v>1</v>
-      <v>4</v>
-      <v>7</v>
-      <v>8</v>
-      <v>9</v>
-      <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
       <v>at close</v>
@@ -2569,7 +2709,6 @@
   </s>
   <s>
     <k n="Low" t="i"/>
-    <k n="P/E" t="i"/>
     <k n="High" t="i"/>
     <k n="Name" t="i"/>
     <k n="Open" t="i"/>
@@ -2606,7 +2745,7 @@
 
 <file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
 <richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <dxfs count="7">
+  <dxfs count="6">
     <x:dxf>
       <x:numFmt numFmtId="2" formatCode="0.00"/>
     </x:dxf>
@@ -2623,9 +2762,6 @@
       <x:numFmt numFmtId="3" formatCode="#,##0"/>
     </x:dxf>
     <x:dxf>
-      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </x:dxf>
-    <x:dxf>
       <x:numFmt numFmtId="1" formatCode="0"/>
     </x:dxf>
   </dxfs>
@@ -2636,9 +2772,6 @@
   <richStyles>
     <rSty dxfid="1">
       <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
-    </rSty>
-    <rSty dxfid="5">
-      <rpv i="0">#,##0.00</rpv>
     </rSty>
     <rSty>
       <rpv i="1">1</rpv>
@@ -2651,7 +2784,7 @@
       <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
     </rSty>
     <rSty dxfid="2"/>
-    <rSty dxfid="6">
+    <rSty dxfid="5">
       <rpv i="0">0</rpv>
     </rSty>
     <rSty dxfid="0">
@@ -2958,13 +3091,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL118"/>
+  <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomRight" activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3108,7 +3241,7 @@
         <f>(E3/D3)-1</f>
         <v>0.79852612282309798</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="73">
         <f t="shared" ref="F4:K4" si="0">(F3/E3)-1</f>
         <v>0.66772262857049669</v>
       </c>
@@ -3205,16 +3338,20 @@
       <c r="F6" s="10">
         <v>158178000</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="G6" s="36">
+        <f>G3*G7</f>
+        <v>237962600</v>
+      </c>
+      <c r="L6" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="72" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3237,21 +3374,24 @@
       <c r="F7" s="2">
         <v>0.38669999999999999</v>
       </c>
+      <c r="G7" s="2">
+        <v>0.41170000000000001</v>
+      </c>
       <c r="L7" s="17">
-        <f>F7</f>
-        <v>0.38669999999999999</v>
+        <f>G7</f>
+        <v>0.41170000000000001</v>
       </c>
       <c r="M7" s="21">
-        <f>F21</f>
-        <v>-0.45</v>
+        <f>G21</f>
+        <v>0.12802768166089964</v>
       </c>
       <c r="N7" s="21">
-        <f>F30</f>
-        <v>-0.47770000000000001</v>
+        <f>G30</f>
+        <v>0.10553633217993079</v>
       </c>
       <c r="O7" s="21">
-        <f>F107/F3</f>
-        <v>0.17878787137971244</v>
+        <f>G105</f>
+        <v>0.1782006920415225</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3519,17 +3659,17 @@
         <f>(F35+E35+D35+C35)/4</f>
         <v>-1.5396029518067946E-2</v>
       </c>
-      <c r="M16" s="33">
-        <f>N101/F3</f>
-        <v>16.961464274451227</v>
-      </c>
-      <c r="N16" s="33">
-        <f>N101/F28</f>
-        <v>-35.506102709756661</v>
-      </c>
-      <c r="O16" s="35">
-        <f>N101/F107</f>
-        <v>94.869210889748814</v>
+      <c r="M16" s="28">
+        <f>N102/F3</f>
+        <v>14.190774758036323</v>
+      </c>
+      <c r="N16" s="28">
+        <f>N102/F28</f>
+        <v>-29.706108973670069</v>
+      </c>
+      <c r="O16" s="30">
+        <f>N102/F107</f>
+        <v>79.372133291400601</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -3603,36 +3743,36 @@
       <c r="F19" s="10">
         <v>-184092000</v>
       </c>
-      <c r="G19" s="41">
+      <c r="G19" s="36">
         <v>74000000</v>
       </c>
-      <c r="H19" s="41">
+      <c r="H19" s="36">
         <v>111000000</v>
       </c>
-      <c r="I19" s="41">
+      <c r="I19" s="36">
         <v>185000000</v>
       </c>
-      <c r="J19" s="41">
+      <c r="J19" s="36">
         <v>305000000</v>
       </c>
-      <c r="K19" s="41">
+      <c r="K19" s="36">
         <v>475000000</v>
       </c>
       <c r="L19" s="27">
         <f>F40-F56-F61</f>
         <v>208375000</v>
       </c>
-      <c r="M19" s="33">
-        <f>N101/G3</f>
-        <v>12.003581314878893</v>
-      </c>
-      <c r="N19" s="34">
-        <f>H116/G31</f>
-        <v>114.16216216216218</v>
-      </c>
-      <c r="O19" s="35">
-        <f>N101/G106</f>
-        <v>77.955842696629219</v>
+      <c r="M19" s="28">
+        <f>N102/G3</f>
+        <v>10.04277201384083</v>
+      </c>
+      <c r="N19" s="29">
+        <f>H117/G31</f>
+        <v>95.51351351351353</v>
+      </c>
+      <c r="O19" s="30">
+        <f>N102/G107</f>
+        <v>56.35652644660194</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3696,31 +3836,34 @@
       <c r="F21" s="2">
         <v>-0.45</v>
       </c>
-      <c r="G21" s="42">
+      <c r="G21" s="37">
         <f>G19/G3</f>
         <v>0.12802768166089964</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="37">
         <f t="shared" ref="H21:K21" si="4">H19/H3</f>
         <v>0.14122137404580154</v>
       </c>
-      <c r="I21" s="42">
+      <c r="I21" s="37">
         <f t="shared" si="4"/>
         <v>0.16879562043795621</v>
       </c>
-      <c r="J21" s="42">
+      <c r="J21" s="37">
         <f t="shared" si="4"/>
         <v>0.21958243340532757</v>
       </c>
-      <c r="K21" s="42">
+      <c r="K21" s="37">
         <f t="shared" si="4"/>
         <v>0.26927437641723356</v>
       </c>
+      <c r="M21" s="47" t="s">
+        <v>166</v>
+      </c>
       <c r="N21" s="19" t="s">
         <v>160</v>
       </c>
       <c r="O21" s="20" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -3742,13 +3885,17 @@
       <c r="F22" s="10">
         <v>-189324000</v>
       </c>
-      <c r="N22" s="36">
-        <f>(-1*F98)/N101</f>
+      <c r="M22" s="17">
+        <f>SUM(G29:K29)/5</f>
+        <v>0.11916297556306912</v>
+      </c>
+      <c r="N22" s="31">
+        <f>(-1*F98)/N102</f>
         <v>0</v>
       </c>
-      <c r="O22" s="37">
-        <f>F107/N101</f>
-        <v>1.05408276365041E-2</v>
+      <c r="O22" s="32">
+        <f>G107/N102</f>
+        <v>1.7744173799417968E-2</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -3870,19 +4017,19 @@
       <c r="F28" s="11">
         <v>-195405000</v>
       </c>
-      <c r="G28" s="38">
+      <c r="G28" s="33">
         <v>61000000</v>
       </c>
-      <c r="H28" s="38">
+      <c r="H28" s="33">
         <v>94168000</v>
       </c>
-      <c r="I28" s="38">
+      <c r="I28" s="33">
         <v>181000000</v>
       </c>
-      <c r="J28" s="38">
+      <c r="J28" s="33">
         <v>135000000</v>
       </c>
-      <c r="K28" s="38">
+      <c r="K28" s="33">
         <v>229000000</v>
       </c>
     </row>
@@ -3947,23 +4094,23 @@
       <c r="F30" s="2">
         <v>-0.47770000000000001</v>
       </c>
-      <c r="G30" s="39">
+      <c r="G30" s="34">
         <f>G28/G3</f>
         <v>0.10553633217993079</v>
       </c>
-      <c r="H30" s="39">
+      <c r="H30" s="34">
         <f t="shared" ref="H30:K30" si="6">H28/H3</f>
         <v>0.11980661577608143</v>
       </c>
-      <c r="I30" s="39">
+      <c r="I30" s="34">
         <f t="shared" si="6"/>
         <v>0.16514598540145986</v>
       </c>
-      <c r="J30" s="39">
+      <c r="J30" s="34">
         <f t="shared" si="6"/>
         <v>9.719222462203024E-2</v>
       </c>
-      <c r="K30" s="39">
+      <c r="K30" s="34">
         <f t="shared" si="6"/>
         <v>0.12981859410430838</v>
       </c>
@@ -3987,19 +4134,19 @@
       <c r="F31" s="12">
         <v>-1.71</v>
       </c>
-      <c r="G31" s="40">
+      <c r="G31" s="35">
         <v>0.37</v>
       </c>
-      <c r="H31" s="40">
+      <c r="H31" s="35">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I31" s="40">
+      <c r="I31" s="35">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J31" s="40">
+      <c r="J31" s="35">
         <v>0.82</v>
       </c>
-      <c r="K31" s="40">
+      <c r="K31" s="35">
         <v>1.4</v>
       </c>
     </row>
@@ -4023,7 +4170,7 @@
         <v>-1.71</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
@@ -4042,8 +4189,12 @@
       <c r="F33" s="1">
         <v>114552727</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="G33" s="1" cm="1">
+        <f t="array" ref="G33">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>164253600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
@@ -4062,8 +4213,12 @@
       <c r="F34" s="1">
         <v>114552727</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="1" cm="1">
+        <f t="array" ref="G34">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>164253600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>102</v>
       </c>
@@ -4073,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="23">
-        <f t="shared" ref="D35:F35" si="7">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:G35" si="7">(D34-C34)/C34</f>
         <v>0</v>
       </c>
       <c r="E35" s="23">
@@ -4084,8 +4239,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="G35" s="23">
+        <f t="shared" si="7"/>
+        <v>0.43386896411466486</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>28</v>
       </c>
@@ -4105,7 +4264,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
@@ -4125,7 +4284,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
@@ -4145,7 +4304,7 @@
         <v>165033000</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>31</v>
       </c>
@@ -4165,7 +4324,7 @@
         <v>63166000</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>32</v>
       </c>
@@ -4185,7 +4344,7 @@
         <v>228199000</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
@@ -4205,7 +4364,7 @@
         <v>94549000</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
@@ -4225,7 +4384,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>35</v>
       </c>
@@ -4245,7 +4404,7 @@
         <v>51904000</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>36</v>
       </c>
@@ -4265,7 +4424,7 @@
         <v>374652000</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
@@ -4285,7 +4444,7 @@
         <v>30001000</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
@@ -4305,7 +4464,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>39</v>
       </c>
@@ -4325,7 +4484,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>40</v>
       </c>
@@ -5030,7 +5189,7 @@
         <v>2662000</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -5049,12 +5208,8 @@
       <c r="F83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M83" s="67" t="s">
-        <v>124</v>
-      </c>
-      <c r="N83" s="68"/>
-    </row>
-    <row r="84" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -5073,12 +5228,18 @@
       <c r="F84" s="1">
         <v>16648000</v>
       </c>
-      <c r="M84" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="N84" s="69"/>
-    </row>
-    <row r="85" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="G84" s="48"/>
+      <c r="H84" s="48"/>
+      <c r="I84" s="48"/>
+      <c r="J84" s="48"/>
+      <c r="K84" s="48"/>
+      <c r="L84" s="48"/>
+      <c r="M84" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="N84" s="75"/>
+    </row>
+    <row r="85" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -5097,13 +5258,16 @@
       <c r="F85" s="1">
         <v>-8939000</v>
       </c>
-      <c r="M85" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="N85" s="44">
-        <f>F17</f>
-        <v>-12093000</v>
-      </c>
+      <c r="G85" s="48"/>
+      <c r="H85" s="48"/>
+      <c r="I85" s="48"/>
+      <c r="J85" s="48"/>
+      <c r="K85" s="48"/>
+      <c r="L85" s="48"/>
+      <c r="M85" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="N85" s="78"/>
     </row>
     <row r="86" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -5124,12 +5288,18 @@
       <c r="F86" s="1">
         <v>-1149000</v>
       </c>
-      <c r="M86" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="N86" s="44">
-        <f>F56</f>
-        <v>3245000</v>
+      <c r="G86" s="48"/>
+      <c r="H86" s="48"/>
+      <c r="I86" s="48"/>
+      <c r="J86" s="48"/>
+      <c r="K86" s="48"/>
+      <c r="L86" s="48"/>
+      <c r="M86" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="N86" s="49">
+        <f>F17</f>
+        <v>-12093000</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5151,12 +5321,18 @@
       <c r="F87" s="10">
         <v>81485000</v>
       </c>
-      <c r="M87" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="N87" s="44">
-        <f>F61</f>
-        <v>16579000</v>
+      <c r="G87" s="48"/>
+      <c r="H87" s="48"/>
+      <c r="I87" s="48"/>
+      <c r="J87" s="48"/>
+      <c r="K87" s="48"/>
+      <c r="L87" s="48"/>
+      <c r="M87" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="N87" s="49">
+        <f>F56</f>
+        <v>3245000</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5178,12 +5354,18 @@
       <c r="F88" s="1">
         <v>-8352000</v>
       </c>
-      <c r="M88" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="N88" s="46">
-        <f>N85/(N86+N87)</f>
-        <v>-0.61001815980629537</v>
+      <c r="G88" s="48"/>
+      <c r="H88" s="48"/>
+      <c r="I88" s="48"/>
+      <c r="J88" s="48"/>
+      <c r="K88" s="48"/>
+      <c r="L88" s="48"/>
+      <c r="M88" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="N88" s="49">
+        <f>F61</f>
+        <v>16579000</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5210,12 +5392,18 @@
         <f t="shared" si="9"/>
         <v>2.0418091720062877E-2</v>
       </c>
-      <c r="M89" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="N89" s="44">
-        <f>F27</f>
-        <v>-6012000</v>
+      <c r="G89" s="48"/>
+      <c r="H89" s="48"/>
+      <c r="I89" s="48"/>
+      <c r="J89" s="48"/>
+      <c r="K89" s="48"/>
+      <c r="L89" s="48"/>
+      <c r="M89" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="N89" s="50">
+        <f>N86/(N87+N88)</f>
+        <v>-0.61001815980629537</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5237,12 +5425,18 @@
       <c r="F90" s="1">
         <v>-317483000</v>
       </c>
-      <c r="M90" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="N90" s="44">
-        <f>F25</f>
-        <v>-201417000</v>
+      <c r="G90" s="48"/>
+      <c r="H90" s="48"/>
+      <c r="I90" s="48"/>
+      <c r="J90" s="48"/>
+      <c r="K90" s="48"/>
+      <c r="L90" s="48"/>
+      <c r="M90" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="N90" s="49">
+        <f>F27</f>
+        <v>-6012000</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5264,12 +5458,18 @@
       <c r="F91" s="1">
         <v>-100265000</v>
       </c>
-      <c r="M91" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="N91" s="46">
-        <f>N89/N90</f>
-        <v>2.9848523213035643E-2</v>
+      <c r="G91" s="48"/>
+      <c r="H91" s="48"/>
+      <c r="I91" s="48"/>
+      <c r="J91" s="48"/>
+      <c r="K91" s="48"/>
+      <c r="L91" s="48"/>
+      <c r="M91" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="N91" s="49">
+        <f>F25</f>
+        <v>-201417000</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5291,15 +5491,21 @@
       <c r="F92" s="1">
         <v>95999000</v>
       </c>
-      <c r="M92" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="N92" s="46">
-        <f>N88*(1-N91)</f>
-        <v>-0.59181001860294391</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="G92" s="48"/>
+      <c r="H92" s="48"/>
+      <c r="I92" s="48"/>
+      <c r="J92" s="48"/>
+      <c r="K92" s="48"/>
+      <c r="L92" s="48"/>
+      <c r="M92" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="N92" s="50">
+        <f>N90/N91</f>
+        <v>2.9848523213035643E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -5318,12 +5524,21 @@
       <c r="F93" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M93" s="69" t="s">
-        <v>132</v>
-      </c>
-      <c r="N93" s="69"/>
-    </row>
-    <row r="94" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="G93" s="48"/>
+      <c r="H93" s="48"/>
+      <c r="I93" s="48"/>
+      <c r="J93" s="48"/>
+      <c r="K93" s="48"/>
+      <c r="L93" s="48"/>
+      <c r="M93" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="N93" s="50">
+        <f>N89*(1-N92)</f>
+        <v>-0.59181001860294391</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -5342,13 +5557,16 @@
       <c r="F94" s="10">
         <v>-330101000</v>
       </c>
-      <c r="M94" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="N94" s="47">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
-      </c>
+      <c r="G94" s="48"/>
+      <c r="H94" s="48"/>
+      <c r="I94" s="48"/>
+      <c r="J94" s="48"/>
+      <c r="K94" s="48"/>
+      <c r="L94" s="48"/>
+      <c r="M94" s="78" t="s">
+        <v>132</v>
+      </c>
+      <c r="N94" s="78"/>
     </row>
     <row r="95" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -5369,12 +5587,18 @@
       <c r="F95" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M95" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="N95" s="49">
-        <f>2.43</f>
-        <v>2.4300000000000002</v>
+      <c r="G95" s="48"/>
+      <c r="H95" s="48"/>
+      <c r="I95" s="48"/>
+      <c r="J95" s="48"/>
+      <c r="K95" s="48"/>
+      <c r="L95" s="48"/>
+      <c r="M95" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="N95" s="46">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.9020000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5396,11 +5620,18 @@
       <c r="F96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M96" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="N96" s="47">
-        <v>8.4000000000000005E-2</v>
+      <c r="G96" s="48"/>
+      <c r="H96" s="48"/>
+      <c r="I96" s="48"/>
+      <c r="J96" s="48"/>
+      <c r="K96" s="48"/>
+      <c r="L96" s="48"/>
+      <c r="M96" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="N96" s="51">
+        <f>2.43</f>
+        <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5422,15 +5653,20 @@
       <c r="F97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M97" s="45" t="s">
-        <v>136</v>
+      <c r="G97" s="48"/>
+      <c r="H97" s="48"/>
+      <c r="I97" s="48"/>
+      <c r="J97" s="48"/>
+      <c r="K97" s="48"/>
+      <c r="L97" s="48"/>
+      <c r="M97" s="38" t="s">
+        <v>135</v>
       </c>
       <c r="N97" s="46">
-        <f>(N94)+((N95)*(N96-N94))</f>
-        <v>0.14817840000000002</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -5449,12 +5685,21 @@
       <c r="F98" s="1">
         <v>0</v>
       </c>
-      <c r="M98" s="69" t="s">
-        <v>137</v>
-      </c>
-      <c r="N98" s="69"/>
-    </row>
-    <row r="99" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="G98" s="48"/>
+      <c r="H98" s="48"/>
+      <c r="I98" s="48"/>
+      <c r="J98" s="48"/>
+      <c r="K98" s="48"/>
+      <c r="L98" s="48"/>
+      <c r="M98" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="N98" s="50">
+        <f>(N95)+((N96)*(N97-N95))</f>
+        <v>0.13402140000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -5473,13 +5718,16 @@
       <c r="F99" s="1">
         <v>1239000</v>
       </c>
-      <c r="M99" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="N99" s="44">
-        <f>N86+N87</f>
-        <v>19824000</v>
-      </c>
+      <c r="G99" s="48"/>
+      <c r="H99" s="48"/>
+      <c r="I99" s="48"/>
+      <c r="J99" s="48"/>
+      <c r="K99" s="48"/>
+      <c r="L99" s="48"/>
+      <c r="M99" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="N99" s="78"/>
     </row>
     <row r="100" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -5500,12 +5748,18 @@
       <c r="F100" s="10">
         <v>1239000</v>
       </c>
-      <c r="M100" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="N100" s="46">
-        <f>N99/N103</f>
-        <v>2.8491379719208141E-3</v>
+      <c r="G100" s="48"/>
+      <c r="H100" s="48"/>
+      <c r="I100" s="48"/>
+      <c r="J100" s="48"/>
+      <c r="K100" s="48"/>
+      <c r="L100" s="48"/>
+      <c r="M100" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="N100" s="49">
+        <f>N87+N88</f>
+        <v>19824000</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5527,12 +5781,18 @@
       <c r="F101" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M101" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="N101" s="50" cm="1">
-        <f t="array" ref="N101">_FV(A1,"Market cap",TRUE)</f>
-        <v>6938070000</v>
+      <c r="G101" s="48"/>
+      <c r="H101" s="48"/>
+      <c r="I101" s="48"/>
+      <c r="J101" s="48"/>
+      <c r="K101" s="48"/>
+      <c r="L101" s="48"/>
+      <c r="M101" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="N101" s="50">
+        <f>N100/N104</f>
+        <v>3.4035269422904319E-3</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5554,12 +5814,18 @@
       <c r="F102" s="10">
         <v>-247377000</v>
       </c>
-      <c r="M102" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="N102" s="46">
-        <f>N101/N103</f>
-        <v>0.99715086202807923</v>
+      <c r="G102" s="48"/>
+      <c r="H102" s="48"/>
+      <c r="I102" s="48"/>
+      <c r="J102" s="48"/>
+      <c r="K102" s="48"/>
+      <c r="L102" s="48"/>
+      <c r="M102" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="N102" s="52" cm="1">
+        <f t="array" ref="N102">_FV(A1,"Market cap",TRUE)</f>
+        <v>5804722224</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5581,15 +5847,21 @@
       <c r="F103" s="1">
         <v>458899000</v>
       </c>
-      <c r="M103" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="N103" s="51">
-        <f>N99+N101</f>
-        <v>6957894000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G103" s="48"/>
+      <c r="H103" s="48"/>
+      <c r="I103" s="48"/>
+      <c r="J103" s="48"/>
+      <c r="K103" s="48"/>
+      <c r="L103" s="48"/>
+      <c r="M103" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="N103" s="50">
+        <f>N102/N104</f>
+        <v>0.9965964730577096</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -5608,277 +5880,379 @@
       <c r="F104" s="11">
         <v>211522000</v>
       </c>
-      <c r="M104" s="69" t="s">
+      <c r="G104" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="H104" s="77"/>
+      <c r="I104" s="77"/>
+      <c r="J104" s="77"/>
+      <c r="K104" s="77"/>
+      <c r="L104" s="48"/>
+      <c r="M104" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="N104" s="53">
+        <f>N100+N102</f>
+        <v>5824546224</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B105" s="1">
+        <f>(B22*(1-$N$92))+B77+B88+B81</f>
+        <v>-6789232.0260951165</v>
+      </c>
+      <c r="C105" s="1">
+        <f>(C22*(1-$N$92))+C77+C88+C81</f>
+        <v>9278780.0384277403</v>
+      </c>
+      <c r="D105" s="1">
+        <f>(D22*(1-$N$92))+D77+D88+D81</f>
+        <v>29185884.37420873</v>
+      </c>
+      <c r="E105" s="1">
+        <f>(E22*(1-$N$92))+E77+E88+E81</f>
+        <v>-78235205.662878513</v>
+      </c>
+      <c r="F105" s="1">
+        <f>(F22*(1-$N$92))+F77+F88+F81</f>
+        <v>47105041.808784753</v>
+      </c>
+      <c r="G105" s="45">
+        <f>G107/G3</f>
+        <v>0.1782006920415225</v>
+      </c>
+      <c r="H105" s="45">
+        <f t="shared" ref="H105:K105" si="10">H107/H3</f>
+        <v>0.18575063613231552</v>
+      </c>
+      <c r="I105" s="45">
+        <f t="shared" si="10"/>
+        <v>0.19527372262773723</v>
+      </c>
+      <c r="J105" s="45">
+        <f t="shared" si="10"/>
+        <v>0.22750179985601152</v>
+      </c>
+      <c r="K105" s="45">
+        <f t="shared" si="10"/>
+        <v>0.27205215419501133</v>
+      </c>
+      <c r="L105" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="M105" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="N104" s="69"/>
-    </row>
-    <row r="105" spans="1:14" ht="21" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
+      <c r="N105" s="78"/>
+    </row>
+    <row r="106" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
         <v>162</v>
-      </c>
-      <c r="B105" s="1">
-        <f t="shared" ref="B105:E105" si="10">(B22*(1-$N$91))+B77+B88+B81</f>
-        <v>-6789232.0260951165</v>
-      </c>
-      <c r="C105" s="1">
-        <f t="shared" si="10"/>
-        <v>9278780.0384277403</v>
-      </c>
-      <c r="D105" s="1">
-        <f t="shared" si="10"/>
-        <v>29185884.37420873</v>
-      </c>
-      <c r="E105" s="1">
-        <f t="shared" si="10"/>
-        <v>-78235205.662878513</v>
-      </c>
-      <c r="F105" s="1">
-        <f>(F22*(1-$N$91))+F77+F88+F81</f>
-        <v>47105041.808784753</v>
-      </c>
-      <c r="G105" s="28">
-        <f>F105*(1+$N$106)</f>
-        <v>63164200.455584705</v>
-      </c>
-      <c r="H105" s="28">
-        <f t="shared" ref="H105:K105" si="11">G105*(1+$N$106)</f>
-        <v>84698284.217406929</v>
-      </c>
-      <c r="I105" s="28">
-        <f t="shared" si="11"/>
-        <v>113573817.09307091</v>
-      </c>
-      <c r="J105" s="28">
-        <f t="shared" si="11"/>
-        <v>152293662.71435475</v>
-      </c>
-      <c r="K105" s="28">
-        <f t="shared" si="11"/>
-        <v>204213966.7098383</v>
-      </c>
-      <c r="L105" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="M105" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="N105" s="53">
-        <f>(N100*N92)+(N102*N97)</f>
-        <v>0.14607007089777674</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="14" t="s">
-        <v>163</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15">
-        <f>(C107/B107)-1</f>
+        <f t="shared" ref="C106:K106" si="11">(C107/B107)-1</f>
         <v>-1.8355775169857937</v>
       </c>
       <c r="D106" s="15">
-        <f>(D107/C107)-1</f>
+        <f t="shared" si="11"/>
         <v>3.2717327025428737</v>
       </c>
       <c r="E106" s="15">
-        <f>(E107/D107)-1</f>
+        <f t="shared" si="11"/>
         <v>-0.55475185159548701</v>
       </c>
       <c r="F106" s="15">
-        <f>(F107/E107)-1</f>
+        <f t="shared" si="11"/>
         <v>4.6846482705013601</v>
       </c>
-      <c r="G106" s="31">
-        <v>89000000</v>
-      </c>
-      <c r="H106" s="31">
-        <v>129500000</v>
-      </c>
-      <c r="I106" s="31">
-        <v>198200000</v>
-      </c>
-      <c r="J106" s="31">
-        <v>318800000</v>
-      </c>
-      <c r="K106" s="31">
+      <c r="G106" s="55">
+        <f t="shared" si="11"/>
+        <v>0.40839292795318127</v>
+      </c>
+      <c r="H106" s="55">
+        <f t="shared" si="11"/>
+        <v>0.41747572815533984</v>
+      </c>
+      <c r="I106" s="55">
+        <f t="shared" si="11"/>
+        <v>0.46589041095890416</v>
+      </c>
+      <c r="J106" s="55">
+        <f t="shared" si="11"/>
+        <v>0.47649752359592568</v>
+      </c>
+      <c r="K106" s="55">
+        <f t="shared" si="11"/>
+        <v>0.51867088607594947</v>
+      </c>
+      <c r="L106" s="56">
+        <f>SUM(G106:K106)/5</f>
+        <v>0.4573854953478601</v>
+      </c>
+      <c r="M106" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="N106" s="57">
+        <f>(N101*N93)+(N103*N98)</f>
+        <v>0.131551013211224</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="B107" s="1">
+        <v>-8095000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>6764000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>28894000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>12865000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>73133000</v>
+      </c>
+      <c r="G107" s="58">
+        <v>103000000</v>
+      </c>
+      <c r="H107" s="58">
+        <v>146000000</v>
+      </c>
+      <c r="I107" s="58">
+        <v>214020000</v>
+      </c>
+      <c r="J107" s="58">
+        <v>316000000</v>
+      </c>
+      <c r="K107" s="58">
         <v>479900000</v>
       </c>
-      <c r="L106" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="M106" s="54" t="s">
+      <c r="L107" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="M107" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="N106" s="55">
+      <c r="N107" s="42">
         <f>(SUM(G4:K4)/5)</f>
         <v>0.34092228836117999</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="65" t="s">
-        <v>164</v>
-      </c>
-      <c r="B107" s="1">
-        <v>-8095000</v>
-      </c>
-      <c r="C107" s="1">
-        <v>6764000</v>
-      </c>
-      <c r="D107" s="1">
-        <v>28894000</v>
-      </c>
-      <c r="E107" s="1">
-        <v>12865000</v>
-      </c>
-      <c r="F107" s="1">
-        <v>73133000</v>
-      </c>
-      <c r="G107" s="29"/>
-      <c r="H107" s="29"/>
-      <c r="I107" s="29"/>
-      <c r="J107" s="29"/>
-      <c r="K107" s="32">
-        <f>K106*(1+N107)/(N108-N107)</f>
-        <v>4062915767.3106875</v>
-      </c>
-      <c r="L107" s="30" t="s">
+    <row r="108" spans="1:14" ht="19" x14ac:dyDescent="0.2">
+      <c r="G108" s="59"/>
+      <c r="H108" s="59"/>
+      <c r="I108" s="59"/>
+      <c r="J108" s="59"/>
+      <c r="K108" s="61">
+        <f>K107*(1+N108)/(N109-N108)</f>
+        <v>4616544556.219985</v>
+      </c>
+      <c r="L108" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="M107" s="56" t="s">
+      <c r="M108" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="N107" s="57">
+      <c r="N108" s="43">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G108" s="32">
-        <f t="shared" ref="G108:J108" si="12">G107+G106</f>
-        <v>89000000</v>
-      </c>
-      <c r="H108" s="32">
+    <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.2">
+      <c r="G109" s="61">
+        <f t="shared" ref="G109:J109" si="12">G108+G107</f>
+        <v>103000000</v>
+      </c>
+      <c r="H109" s="61">
         <f t="shared" si="12"/>
-        <v>129500000</v>
-      </c>
-      <c r="I108" s="32">
+        <v>146000000</v>
+      </c>
+      <c r="I109" s="61">
         <f t="shared" si="12"/>
-        <v>198200000</v>
-      </c>
-      <c r="J108" s="32">
+        <v>214020000</v>
+      </c>
+      <c r="J109" s="61">
         <f t="shared" si="12"/>
-        <v>318800000</v>
-      </c>
-      <c r="K108" s="32">
-        <f>K107+K106</f>
-        <v>4542815767.310688</v>
-      </c>
-      <c r="L108" s="30" t="s">
+        <v>316000000</v>
+      </c>
+      <c r="K109" s="61">
+        <f>K108+K107</f>
+        <v>5096444556.219985</v>
+      </c>
+      <c r="L109" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="M108" s="58" t="s">
+      <c r="M109" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="N108" s="55">
-        <f>N105</f>
-        <v>0.14607007089777674</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G109" s="66" t="s">
+      <c r="N109" s="42">
+        <f>N106</f>
+        <v>0.131551013211224</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="19" x14ac:dyDescent="0.2">
+      <c r="G110" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="H109" s="66"/>
-    </row>
-    <row r="110" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G110" s="59" t="s">
+      <c r="H110" s="76"/>
+      <c r="I110" s="48"/>
+      <c r="J110" s="48"/>
+      <c r="K110" s="48"/>
+      <c r="L110" s="48"/>
+      <c r="M110" s="48"/>
+      <c r="N110" s="48"/>
+    </row>
+    <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="G111" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="H110" s="50">
-        <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>2790275597.6788707</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G111" s="59" t="s">
+      <c r="H111" s="52">
+        <f>NPV(N109,G109,H109,I109,J109,K109)</f>
+        <v>3292757557.5830865</v>
+      </c>
+      <c r="I111" s="48"/>
+      <c r="J111" s="48"/>
+      <c r="K111" s="48"/>
+      <c r="L111" s="48"/>
+      <c r="M111" s="48"/>
+      <c r="N111" s="48"/>
+    </row>
+    <row r="112" spans="1:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="G112" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="H111" s="50">
+      <c r="H112" s="52">
         <f>F40</f>
         <v>228199000</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G112" s="59" t="s">
+      <c r="I112" s="48"/>
+      <c r="J112" s="48"/>
+      <c r="K112" s="48"/>
+      <c r="L112" s="48"/>
+      <c r="M112" s="48"/>
+      <c r="N112" s="48"/>
+    </row>
+    <row r="113" spans="7:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="G113" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="H112" s="50">
-        <f>N99</f>
+      <c r="H113" s="52">
+        <f>N100</f>
         <v>19824000</v>
       </c>
-    </row>
-    <row r="113" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G113" s="59" t="s">
+      <c r="I113" s="48"/>
+      <c r="J113" s="48"/>
+      <c r="K113" s="48"/>
+      <c r="L113" s="48"/>
+      <c r="M113" s="48"/>
+      <c r="N113" s="48"/>
+    </row>
+    <row r="114" spans="7:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="G114" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="H113" s="50">
-        <f>H110+H111-H112</f>
-        <v>2998650597.6788707</v>
-      </c>
-    </row>
-    <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G114" s="59" t="s">
+      <c r="H114" s="52">
+        <f>H111+H112-H113</f>
+        <v>3501132557.5830865</v>
+      </c>
+      <c r="I114" s="48"/>
+      <c r="J114" s="48"/>
+      <c r="K114" s="48"/>
+      <c r="L114" s="48"/>
+      <c r="M114" s="48"/>
+      <c r="N114" s="48"/>
+    </row>
+    <row r="115" spans="7:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="G115" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="H114" s="59">
+      <c r="H115" s="65">
         <f>F34*(1+(L16*4))</f>
         <v>107498098.33493128</v>
       </c>
-    </row>
-    <row r="115" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G115" s="60" t="s">
+      <c r="I115" s="48"/>
+      <c r="J115" s="48"/>
+      <c r="K115" s="48"/>
+      <c r="L115" s="48"/>
+      <c r="M115" s="48"/>
+      <c r="N115" s="48"/>
+    </row>
+    <row r="116" spans="7:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="G116" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="H115" s="61">
-        <f>H113/H114</f>
-        <v>27.894917622970315</v>
-      </c>
-    </row>
-    <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G116" s="59" t="s">
+      <c r="H116" s="67">
+        <f>H114/H115</f>
+        <v>32.569251101304374</v>
+      </c>
+      <c r="I116" s="48"/>
+      <c r="J116" s="48"/>
+      <c r="K116" s="48"/>
+      <c r="L116" s="48"/>
+      <c r="M116" s="48"/>
+      <c r="N116" s="48"/>
+    </row>
+    <row r="117" spans="7:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="G117" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="H116" s="62" cm="1">
-        <f t="array" ref="H116">_FV(A1,"Price")</f>
-        <v>42.24</v>
-      </c>
-    </row>
-    <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G117" s="60" t="s">
+      <c r="H117" s="68" cm="1">
+        <f t="array" ref="H117">_FV(A1,"Price")</f>
+        <v>35.340000000000003</v>
+      </c>
+      <c r="I117" s="48"/>
+      <c r="J117" s="48"/>
+      <c r="K117" s="48"/>
+      <c r="L117" s="48"/>
+      <c r="M117" s="48"/>
+      <c r="N117" s="48"/>
+    </row>
+    <row r="118" spans="7:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="G118" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="H117" s="63">
-        <f>H115/H116-1</f>
-        <v>-0.3396089577895286</v>
-      </c>
-    </row>
-    <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G118" s="60" t="s">
+      <c r="H118" s="69">
+        <f>H116/H117-1</f>
+        <v>-7.8402628712383349E-2</v>
+      </c>
+      <c r="I118" s="48"/>
+      <c r="J118" s="48"/>
+      <c r="K118" s="48"/>
+      <c r="L118" s="48"/>
+      <c r="M118" s="48"/>
+      <c r="N118" s="48"/>
+    </row>
+    <row r="119" spans="7:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="G119" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="H118" s="64" t="str">
-        <f>IF(H115&gt;H116,"BUY","SELL")</f>
+      <c r="H119" s="70" t="str">
+        <f>IF(H116&gt;H117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
+      <c r="I119" s="48"/>
+      <c r="J119" s="48"/>
+      <c r="K119" s="48"/>
+      <c r="L119" s="48"/>
+      <c r="M119" s="48"/>
+      <c r="N119" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="M83:N83"/>
+  <mergeCells count="7">
     <mergeCell ref="M84:N84"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="M104:N104"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="G104:K104"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="M94:N94"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/GLBE" display="ROIC.AI | GLBE" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -5893,7 +6267,7 @@
     <hyperlink ref="F36" r:id="rId10" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="F74" r:id="rId11" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="G1" r:id="rId12" display="https://finbox.com/NASDAQGS:GLBE/explorer/revenue_proj" xr:uid="{C0434844-80A7-6B42-92EC-6EAE982712E4}"/>
-    <hyperlink ref="L106" r:id="rId13" xr:uid="{8258D5EF-5D6F-6A43-8219-F56043C9B7F4}"/>
+    <hyperlink ref="L107" r:id="rId13" xr:uid="{8258D5EF-5D6F-6A43-8219-F56043C9B7F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId14"/>

--- a/Technology/Software/Global-E.xlsx
+++ b/Technology/Software/Global-E.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1ABBD58-E30F-9A4E-8B5B-15729C736223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78470F20-2B76-9746-B890-7E844EE92AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2326,13 +2326,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="Growth"/>
       <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Growth"/>
+      <sheetName val="Value"/>
+      <sheetName val="Concentrated"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
@@ -2348,14 +2350,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.8399999999999999E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -2365,6 +2367,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2492,10 +2496,10 @@
     <v>Powered by Refinitiv</v>
     <v>45.72</v>
     <v>18.14</v>
-    <v>-0.51</v>
-    <v>-1.4226000000000001E-2</v>
-    <v>-0.25</v>
-    <v>-7.0740000000000004E-3</v>
+    <v>-0.83</v>
+    <v>-2.4716999999999999E-2</v>
+    <v>0.66</v>
+    <v>2.0152999999999997E-2</v>
     <v>USD</v>
     <v>Global-E Online Ltd is an Israel-based company operates as a software publisher. It develops e-commerce platform Global-e which enable direct-to-consumer cross-border e-commerce. Through its end-to-end solutions that combine localization capabilities, big-data business intelligence models, international logistics and cross-border experience, it enables retailers and brands to increase international traffic conversion and sales and achieve global online growth. The Company operates from seven offices worldwide and is the chosen partner of retailers and brands across the United States, Europe and Asia.</v>
     <v>767</v>
@@ -2503,24 +2507,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>25 Basel Street, PETAH TIKVA, 4951038 IL</v>
-    <v>36.314999999999998</v>
+    <v>34.034999999999997</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45218.936097719532</v>
+    <v>45225.999765010936</v>
     <v>0</v>
-    <v>35.08</v>
-    <v>5804722224</v>
+    <v>32.380000000000003</v>
+    <v>5379305400</v>
     <v>GLOBAL-E ONLINE LTD</v>
     <v>GLOBAL-E ONLINE LTD</v>
-    <v>35.89</v>
-    <v>35.85</v>
-    <v>35.340000000000003</v>
-    <v>35.090000000000003</v>
+    <v>33.549999999999997</v>
+    <v>33.58</v>
+    <v>32.75</v>
+    <v>33.409999999999997</v>
     <v>164253600</v>
     <v>GLBE</v>
     <v>GLOBAL-E ONLINE LTD (XNAS:GLBE)</v>
-    <v>721385</v>
-    <v>1094605</v>
+    <v>1465480</v>
+    <v>977195</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -3094,10 +3098,10 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C97" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H101" sqref="H101"/>
+      <selection pane="bottomRight" activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3661,15 +3665,15 @@
       </c>
       <c r="M16" s="28">
         <f>N102/F3</f>
-        <v>14.190774758036323</v>
+        <v>13.150760422345488</v>
       </c>
       <c r="N16" s="28">
         <f>N102/F28</f>
-        <v>-29.706108973670069</v>
+        <v>-27.529005910800645</v>
       </c>
       <c r="O16" s="30">
         <f>N102/F107</f>
-        <v>79.372133291400601</v>
+        <v>73.555103715149116</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -3764,15 +3768,15 @@
       </c>
       <c r="M19" s="28">
         <f>N102/G3</f>
-        <v>10.04277201384083</v>
+        <v>9.3067567474048438</v>
       </c>
       <c r="N19" s="29">
         <f>H117/G31</f>
-        <v>95.51351351351353</v>
+        <v>88.513513513513516</v>
       </c>
       <c r="O19" s="30">
         <f>N102/G107</f>
-        <v>56.35652644660194</v>
+        <v>52.226266019417473</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3895,7 +3899,7 @@
       </c>
       <c r="O22" s="32">
         <f>G107/N102</f>
-        <v>1.7744173799417968E-2</v>
+        <v>1.9147453498364306E-2</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5598,7 +5602,7 @@
       </c>
       <c r="N95" s="46">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.8399999999999999E-2</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5696,7 +5700,7 @@
       </c>
       <c r="N98" s="50">
         <f>(N95)+((N96)*(N97-N95))</f>
-        <v>0.13402140000000001</v>
+        <v>0.13490800000000003</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5792,7 +5796,7 @@
       </c>
       <c r="N101" s="50">
         <f>N100/N104</f>
-        <v>3.4035269422904319E-3</v>
+        <v>3.6717030712395964E-3</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5825,7 +5829,7 @@
       </c>
       <c r="N102" s="52" cm="1">
         <f t="array" ref="N102">_FV(A1,"Market cap",TRUE)</f>
-        <v>5804722224</v>
+        <v>5379305400</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5858,7 +5862,7 @@
       </c>
       <c r="N103" s="50">
         <f>N102/N104</f>
-        <v>0.9965964730577096</v>
+        <v>0.99632829692876035</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5893,7 +5897,7 @@
       </c>
       <c r="N104" s="53">
         <f>N100+N102</f>
-        <v>5824546224</v>
+        <v>5399129400</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -5998,7 +6002,7 @@
       </c>
       <c r="N106" s="57">
         <f>(N101*N93)+(N103*N98)</f>
-        <v>0.131551013211224</v>
+        <v>0.13223970721917042</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -6053,7 +6057,7 @@
       <c r="J108" s="59"/>
       <c r="K108" s="61">
         <f>K107*(1+N108)/(N109-N108)</f>
-        <v>4616544556.219985</v>
+        <v>4586897080.8982887</v>
       </c>
       <c r="L108" s="62" t="s">
         <v>145</v>
@@ -6084,7 +6088,7 @@
       </c>
       <c r="K109" s="61">
         <f>K108+K107</f>
-        <v>5096444556.219985</v>
+        <v>5066797080.8982887</v>
       </c>
       <c r="L109" s="62" t="s">
         <v>142</v>
@@ -6094,7 +6098,7 @@
       </c>
       <c r="N109" s="42">
         <f>N106</f>
-        <v>0.131551013211224</v>
+        <v>0.13223970721917042</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="19" x14ac:dyDescent="0.2">
@@ -6115,7 +6119,7 @@
       </c>
       <c r="H111" s="52">
         <f>NPV(N109,G109,H109,I109,J109,K109)</f>
-        <v>3292757557.5830865</v>
+        <v>3267547662.2115488</v>
       </c>
       <c r="I111" s="48"/>
       <c r="J111" s="48"/>
@@ -6160,7 +6164,7 @@
       </c>
       <c r="H114" s="52">
         <f>H111+H112-H113</f>
-        <v>3501132557.5830865</v>
+        <v>3475922662.2115488</v>
       </c>
       <c r="I114" s="48"/>
       <c r="J114" s="48"/>
@@ -6190,7 +6194,7 @@
       </c>
       <c r="H116" s="67">
         <f>H114/H115</f>
-        <v>32.569251101304374</v>
+        <v>32.334736298140214</v>
       </c>
       <c r="I116" s="48"/>
       <c r="J116" s="48"/>
@@ -6205,7 +6209,7 @@
       </c>
       <c r="H117" s="68" cm="1">
         <f t="array" ref="H117">_FV(A1,"Price")</f>
-        <v>35.340000000000003</v>
+        <v>32.75</v>
       </c>
       <c r="I117" s="48"/>
       <c r="J117" s="48"/>
@@ -6220,7 +6224,7 @@
       </c>
       <c r="H118" s="69">
         <f>H116/H117-1</f>
-        <v>-7.8402628712383349E-2</v>
+        <v>-1.2679807690375133E-2</v>
       </c>
       <c r="I118" s="48"/>
       <c r="J118" s="48"/>

--- a/Technology/Software/Global-E.xlsx
+++ b/Technology/Software/Global-E.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78470F20-2B76-9746-B890-7E844EE92AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80644384-7194-8941-A455-13AC9C77C59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2331,13 +2331,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Value"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2354,7 +2351,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8399999999999999E-2</v>
+            <v>4.8750000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2366,9 +2363,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2496,10 +2490,8 @@
     <v>Powered by Refinitiv</v>
     <v>45.72</v>
     <v>18.14</v>
-    <v>-0.83</v>
-    <v>-2.4716999999999999E-2</v>
-    <v>0.66</v>
-    <v>2.0152999999999997E-2</v>
+    <v>1.415</v>
+    <v>4.0819000000000001E-2</v>
     <v>USD</v>
     <v>Global-E Online Ltd is an Israel-based company operates as a software publisher. It develops e-commerce platform Global-e which enable direct-to-consumer cross-border e-commerce. Through its end-to-end solutions that combine localization capabilities, big-data business intelligence models, international logistics and cross-border experience, it enables retailers and brands to increase international traffic conversion and sales and achieve global online growth. The Company operates from seven offices worldwide and is the chosen partner of retailers and brands across the United States, Europe and Asia.</v>
     <v>767</v>
@@ -2507,24 +2499,23 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>25 Basel Street, PETAH TIKVA, 4951038 IL</v>
-    <v>34.034999999999997</v>
+    <v>37.47</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45225.999765010936</v>
+    <v>45232.987874443752</v>
     <v>0</v>
-    <v>32.380000000000003</v>
-    <v>5379305400</v>
+    <v>35.46</v>
+    <v>5693849000</v>
     <v>GLOBAL-E ONLINE LTD</v>
     <v>GLOBAL-E ONLINE LTD</v>
-    <v>33.549999999999997</v>
-    <v>33.58</v>
-    <v>32.75</v>
-    <v>33.409999999999997</v>
+    <v>36.119999999999997</v>
+    <v>34.664999999999999</v>
+    <v>36.08</v>
     <v>164253600</v>
     <v>GLBE</v>
     <v>GLOBAL-E ONLINE LTD (XNAS:GLBE)</v>
-    <v>1465480</v>
-    <v>977195</v>
+    <v>1221205</v>
+    <v>1044327</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -2555,8 +2546,6 @@
     <k n="52 week low"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2576,7 +2565,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2593,7 +2581,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="43">
+    <a count="40">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2604,16 +2592,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2675,19 +2660,13 @@
       <v>7</v>
       <v>8</v>
       <v>3</v>
-      <v>1</v>
-      <v>1</v>
-      <v>4</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2730,9 +2709,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2740,9 +2716,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3101,7 +3074,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C97" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F129" sqref="F129"/>
+      <selection pane="bottomRight" activeCell="F120" sqref="F120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3665,15 +3638,15 @@
       </c>
       <c r="M16" s="28">
         <f>N102/F3</f>
-        <v>13.150760422345488</v>
+        <v>13.919723553901855</v>
       </c>
       <c r="N16" s="28">
         <f>N102/F28</f>
-        <v>-27.529005910800645</v>
+        <v>-29.138706788464983</v>
       </c>
       <c r="O16" s="30">
         <f>N102/F107</f>
-        <v>73.555103715149116</v>
+        <v>77.856084120711586</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -3768,15 +3741,15 @@
       </c>
       <c r="M19" s="28">
         <f>N102/G3</f>
-        <v>9.3067567474048438</v>
+        <v>9.8509498269896199</v>
       </c>
       <c r="N19" s="29">
         <f>H117/G31</f>
-        <v>88.513513513513516</v>
+        <v>97.513513513513516</v>
       </c>
       <c r="O19" s="30">
         <f>N102/G107</f>
-        <v>52.226266019417473</v>
+        <v>55.280087378640779</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3899,7 +3872,7 @@
       </c>
       <c r="O22" s="32">
         <f>G107/N102</f>
-        <v>1.9147453498364306E-2</v>
+        <v>1.8089696442599723E-2</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5602,7 +5575,7 @@
       </c>
       <c r="N95" s="46">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8399999999999999E-2</v>
+        <v>4.8750000000000002E-2</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5700,7 +5673,7 @@
       </c>
       <c r="N98" s="50">
         <f>(N95)+((N96)*(N97-N95))</f>
-        <v>0.13490800000000003</v>
+        <v>0.13440750000000001</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5796,7 +5769,7 @@
       </c>
       <c r="N101" s="50">
         <f>N100/N104</f>
-        <v>3.6717030712395964E-3</v>
+        <v>3.4695720248603657E-3</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5829,7 +5802,7 @@
       </c>
       <c r="N102" s="52" cm="1">
         <f t="array" ref="N102">_FV(A1,"Market cap",TRUE)</f>
-        <v>5379305400</v>
+        <v>5693849000</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5862,7 +5835,7 @@
       </c>
       <c r="N103" s="50">
         <f>N102/N104</f>
-        <v>0.99632829692876035</v>
+        <v>0.99653042797513969</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5897,7 +5870,7 @@
       </c>
       <c r="N104" s="53">
         <f>N100+N102</f>
-        <v>5399129400</v>
+        <v>5713673000</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -6002,7 +5975,7 @@
       </c>
       <c r="N106" s="57">
         <f>(N101*N93)+(N103*N98)</f>
-        <v>0.13223970721917042</v>
+        <v>0.13188783601349172</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -6057,7 +6030,7 @@
       <c r="J108" s="59"/>
       <c r="K108" s="61">
         <f>K107*(1+N108)/(N109-N108)</f>
-        <v>4586897080.8982887</v>
+        <v>4601996993.7263117</v>
       </c>
       <c r="L108" s="62" t="s">
         <v>145</v>
@@ -6088,7 +6061,7 @@
       </c>
       <c r="K109" s="61">
         <f>K108+K107</f>
-        <v>5066797080.8982887</v>
+        <v>5081896993.7263117</v>
       </c>
       <c r="L109" s="62" t="s">
         <v>142</v>
@@ -6098,7 +6071,7 @@
       </c>
       <c r="N109" s="42">
         <f>N106</f>
-        <v>0.13223970721917042</v>
+        <v>0.13188783601349172</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="19" x14ac:dyDescent="0.2">
@@ -6119,7 +6092,7 @@
       </c>
       <c r="H111" s="52">
         <f>NPV(N109,G109,H109,I109,J109,K109)</f>
-        <v>3267547662.2115488</v>
+        <v>3280386117.7731409</v>
       </c>
       <c r="I111" s="48"/>
       <c r="J111" s="48"/>
@@ -6164,7 +6137,7 @@
       </c>
       <c r="H114" s="52">
         <f>H111+H112-H113</f>
-        <v>3475922662.2115488</v>
+        <v>3488761117.7731409</v>
       </c>
       <c r="I114" s="48"/>
       <c r="J114" s="48"/>
@@ -6194,7 +6167,7 @@
       </c>
       <c r="H116" s="67">
         <f>H114/H115</f>
-        <v>32.334736298140214</v>
+        <v>32.454165904435122</v>
       </c>
       <c r="I116" s="48"/>
       <c r="J116" s="48"/>
@@ -6209,7 +6182,7 @@
       </c>
       <c r="H117" s="68" cm="1">
         <f t="array" ref="H117">_FV(A1,"Price")</f>
-        <v>32.75</v>
+        <v>36.08</v>
       </c>
       <c r="I117" s="48"/>
       <c r="J117" s="48"/>
@@ -6224,7 +6197,7 @@
       </c>
       <c r="H118" s="69">
         <f>H116/H117-1</f>
-        <v>-1.2679807690375133E-2</v>
+        <v>-0.10049429311432589</v>
       </c>
       <c r="I118" s="48"/>
       <c r="J118" s="48"/>

--- a/Technology/Software/Global-E.xlsx
+++ b/Technology/Software/Global-E.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DEB97F-B257-6349-AE18-FCEFDA133615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2124C8-9CF9-834D-B2ED-AD5A4C27354B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40960" yWindow="5540" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1411,7 +1411,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1655,9 +1655,6 @@
     <xf numFmtId="164" fontId="12" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="10" fontId="12" fillId="11" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -1709,6 +1706,9 @@
     <xf numFmtId="164" fontId="12" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1730,9 +1730,6 @@
     <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="9" fontId="13" fillId="11" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1744,6 +1741,15 @@
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1781,6 +1787,7 @@
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1798,7 +1805,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5710000000000001E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1810,6 +1817,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1937,10 +1945,10 @@
     <v>Powered by Refinitiv</v>
     <v>45.72</v>
     <v>18.14</v>
-    <v>-0.99</v>
-    <v>-2.6699000000000001E-2</v>
-    <v>0.01</v>
-    <v>2.7709999999999996E-4</v>
+    <v>2.27</v>
+    <v>6.6277000000000003E-2</v>
+    <v>0.18</v>
+    <v>4.9290000000000002E-3</v>
     <v>USD</v>
     <v>Global-E Online Ltd is an Israel-based company operates as a software publisher. It develops e-commerce platform Global-e which enable direct-to-consumer cross-border e-commerce. Through its end-to-end solutions that combine localization capabilities, big-data business intelligence models, international logistics and cross-border experience, it enables retailers and brands to increase international traffic conversion and sales and achieve global online growth. The Company operates from seven offices worldwide and is the chosen partner of retailers and brands across the United States, Europe and Asia.</v>
     <v>767</v>
@@ -1948,24 +1956,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>25 Basel Street, PETAH TIKVA, 4951038 IL</v>
-    <v>37.68</v>
+    <v>36.832099999999997</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45239.936977650003</v>
+    <v>45261.965917638285</v>
     <v>0</v>
-    <v>35.979999999999997</v>
-    <v>6090521000</v>
+    <v>34.33</v>
+    <v>5998540000</v>
     <v>GLOBAL-E ONLINE LTD</v>
     <v>GLOBAL-E ONLINE LTD</v>
-    <v>37.47</v>
-    <v>37.08</v>
-    <v>36.090000000000003</v>
-    <v>36.1</v>
+    <v>34.33</v>
+    <v>34.25</v>
+    <v>36.520000000000003</v>
+    <v>36.700000000000003</v>
     <v>164253600</v>
     <v>GLBE</v>
     <v>GLOBAL-E ONLINE LTD (XNAS:GLBE)</v>
-    <v>1017881</v>
-    <v>1069053</v>
+    <v>2962133</v>
+    <v>1961632</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -2124,9 +2132,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2563,7 +2571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K196"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
+    <sheetView topLeftCell="A122" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A190" sqref="A190:XFD190"/>
     </sheetView>
@@ -9386,7 +9394,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9435,7 +9443,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="53" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>6090521000</v>
+        <v>5998540000</v>
       </c>
       <c r="B3" s="54" t="s">
         <v>193</v>
@@ -9455,15 +9463,15 @@
         <v>195</v>
       </c>
       <c r="G3" s="57">
-        <f>AVERAGE(Financials!C129:G129)</f>
-        <v>6.2677167417242205E-2</v>
+        <f>AVERAGE(Financials!F129:K129)</f>
+        <v>1.5107976643331134E-2</v>
       </c>
       <c r="H3" s="56" t="s">
         <v>196</v>
       </c>
       <c r="I3" s="58">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>6585053269.7251129</v>
+        <v>6495840490.084281</v>
       </c>
       <c r="J3" s="59" t="s">
         <v>197</v>
@@ -9476,10 +9484,10 @@
         <v>204</v>
       </c>
       <c r="M3" s="45"/>
-      <c r="N3" s="127" t="s">
+      <c r="N3" s="126" t="s">
         <v>198</v>
       </c>
-      <c r="O3" s="128"/>
+      <c r="O3" s="127"/>
       <c r="P3" s="45"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -9506,30 +9514,30 @@
       </c>
       <c r="G4" s="65">
         <f>A5*(1+(5*G3))</f>
-        <v>215728351.93042368</v>
+        <v>176661297.76191527</v>
       </c>
       <c r="H4" s="64" t="s">
         <v>202</v>
       </c>
       <c r="I4" s="46">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>5130398543.2439957</v>
+        <v>5037769833.7699337</v>
       </c>
       <c r="J4" s="64" t="s">
         <v>203</v>
       </c>
       <c r="K4" s="66" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-2.6699000000000001E-2</v>
+        <v>6.6277000000000003E-2</v>
       </c>
       <c r="L4" s="67" t="s">
         <v>243</v>
       </c>
       <c r="M4" s="45"/>
-      <c r="N4" s="129" t="s">
+      <c r="N4" s="128" t="s">
         <v>205</v>
       </c>
-      <c r="O4" s="130"/>
+      <c r="O4" s="129"/>
       <c r="P4" s="45"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -9542,9 +9550,9 @@
       </c>
       <c r="C5" s="47">
         <f>F14</f>
-        <v>0.14505119453924914</v>
-      </c>
-      <c r="D5" s="117" t="s">
+        <v>0.16493055555555555</v>
+      </c>
+      <c r="D5" s="116" t="s">
         <v>207</v>
       </c>
       <c r="E5" s="47">
@@ -9563,14 +9571,14 @@
       </c>
       <c r="I5" s="46">
         <f>I4+G5-G6</f>
-        <v>5331495543.2439957</v>
+        <v>5238866833.7699337</v>
       </c>
       <c r="J5" s="64" t="s">
         <v>210</v>
       </c>
       <c r="K5" s="51" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>36.090000000000003</v>
+        <v>36.520000000000003</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>211</v>
@@ -9588,16 +9596,16 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="71">
         <f>O20/F10</f>
-        <v>10.393380546075086</v>
+        <v>10.414131944444444</v>
       </c>
       <c r="B6" s="63" t="s">
         <v>213</v>
       </c>
       <c r="C6" s="47">
         <f>F17</f>
-        <v>0.17747440273037543</v>
-      </c>
-      <c r="D6" s="117" t="s">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="D6" s="116" t="s">
         <v>192</v>
       </c>
       <c r="E6" s="47">
@@ -9616,14 +9624,14 @@
       </c>
       <c r="I6" s="66">
         <f>N25</f>
-        <v>9.5044991453691663E-2</v>
+        <v>9.6006977573431046E-2</v>
       </c>
       <c r="J6" s="64" t="s">
         <v>216</v>
       </c>
       <c r="K6" s="72">
         <f>I5/G4</f>
-        <v>24.713930716735369</v>
+        <v>29.654864422145842</v>
       </c>
       <c r="L6" s="73" t="s">
         <v>217</v>
@@ -9641,14 +9649,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="74">
         <f>O20/F12</f>
-        <v>71.653188235294124</v>
+        <v>63.142526315789475</v>
       </c>
       <c r="B7" s="75" t="s">
         <v>219</v>
       </c>
       <c r="C7" s="76">
         <f>F15/A3</f>
-        <v>1.7075714869056357E-2</v>
+        <v>1.7337552137686837E-2</v>
       </c>
       <c r="D7" s="75" t="s">
         <v>220</v>
@@ -9675,7 +9683,7 @@
       </c>
       <c r="K7" s="82">
         <f>K6/K5-1</f>
-        <v>-0.31521388981060217</v>
+        <v>-0.18798290191276457</v>
       </c>
       <c r="L7" s="83" t="s">
         <v>223</v>
@@ -9771,21 +9779,21 @@
         <v>409049000</v>
       </c>
       <c r="F10" s="94">
-        <v>586000000</v>
+        <v>576000000</v>
       </c>
       <c r="G10" s="94">
-        <v>797000000</v>
+        <v>779000000</v>
       </c>
       <c r="H10" s="94">
-        <v>1117000000</v>
+        <v>1106000000</v>
       </c>
       <c r="I10" s="94">
-        <v>1514000000</v>
+        <v>1446000000</v>
       </c>
       <c r="J10" s="95">
-        <v>1695000000</v>
-      </c>
-      <c r="K10" s="118" t="s">
+        <v>1522000000</v>
+      </c>
+      <c r="K10" s="117" t="s">
         <v>227</v>
       </c>
       <c r="L10" s="48"/>
@@ -9815,27 +9823,27 @@
       </c>
       <c r="F11" s="50">
         <f t="shared" si="0"/>
-        <v>0.43259120545460328</v>
+        <v>0.40814425655606046</v>
       </c>
       <c r="G11" s="49">
         <f t="shared" si="0"/>
-        <v>0.36006825938566545</v>
+        <v>0.35243055555555558</v>
       </c>
       <c r="H11" s="49">
         <f t="shared" si="0"/>
-        <v>0.40150564617314921</v>
+        <v>0.41976893453145059</v>
       </c>
       <c r="I11" s="49">
         <f t="shared" si="0"/>
-        <v>0.35541629364368843</v>
+        <v>0.30741410488245924</v>
       </c>
       <c r="J11" s="97">
         <f t="shared" si="0"/>
-        <v>0.11955085865257598</v>
+        <v>5.2558782849239316E-2</v>
       </c>
       <c r="K11" s="97">
         <f>SUM(F11:J11)/5</f>
-        <v>0.33382645266193645</v>
+        <v>0.30806332687495303</v>
       </c>
       <c r="L11" s="48"/>
       <c r="M11" s="48"/>
@@ -9865,19 +9873,19 @@
         <v>-195405000</v>
       </c>
       <c r="F12" s="99">
-        <v>85000000</v>
+        <v>95000000</v>
       </c>
       <c r="G12" s="94">
-        <v>117000000</v>
+        <v>120000000</v>
       </c>
       <c r="H12" s="94">
-        <v>184000000</v>
+        <v>148000000</v>
       </c>
       <c r="I12" s="94">
-        <v>180000000</v>
+        <v>170000000</v>
       </c>
       <c r="J12" s="95">
-        <v>304000000</v>
+        <v>200000000</v>
       </c>
       <c r="K12" s="100" t="s">
         <v>230</v>
@@ -9910,77 +9918,77 @@
       </c>
       <c r="F13" s="50">
         <f t="shared" si="1"/>
-        <v>-1.4349939868478288</v>
+        <v>-1.4861697500063968</v>
       </c>
       <c r="G13" s="49">
         <f t="shared" si="1"/>
-        <v>0.37647058823529411</v>
+        <v>0.26315789473684204</v>
       </c>
       <c r="H13" s="49">
         <f t="shared" si="1"/>
-        <v>0.57264957264957261</v>
+        <v>0.23333333333333339</v>
       </c>
       <c r="I13" s="49">
         <f t="shared" si="1"/>
-        <v>-2.1739130434782594E-2</v>
+        <v>0.14864864864864868</v>
       </c>
       <c r="J13" s="97">
         <f t="shared" si="1"/>
-        <v>0.68888888888888888</v>
+        <v>0.17647058823529416</v>
       </c>
       <c r="K13" s="97">
         <f>AVERAGE(G13:J13)</f>
-        <v>0.40406747983474323</v>
+        <v>0.20540261623852957</v>
       </c>
       <c r="L13" s="48"/>
       <c r="M13" s="48"/>
-      <c r="N13" s="129" t="s">
+      <c r="N13" s="128" t="s">
         <v>232</v>
       </c>
-      <c r="O13" s="130"/>
+      <c r="O13" s="129"/>
       <c r="P13" s="45"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="101" t="s">
+      <c r="A14" s="118" t="s">
         <v>244</v>
       </c>
-      <c r="B14" s="102">
+      <c r="B14" s="101">
         <f>B12/B10</f>
         <v>-0.1145599222498937</v>
       </c>
-      <c r="C14" s="102">
+      <c r="C14" s="101">
         <f t="shared" ref="C14:J14" si="2">C12/C10</f>
         <v>2.8700274977085244E-2</v>
       </c>
-      <c r="D14" s="102">
+      <c r="D14" s="101">
         <f t="shared" si="2"/>
         <v>-0.30550731019186705</v>
       </c>
-      <c r="E14" s="102">
+      <c r="E14" s="101">
         <f t="shared" si="2"/>
         <v>-0.47770560495197395</v>
       </c>
-      <c r="F14" s="103">
+      <c r="F14" s="102">
         <f t="shared" si="2"/>
-        <v>0.14505119453924914</v>
-      </c>
-      <c r="G14" s="102">
+        <v>0.16493055555555555</v>
+      </c>
+      <c r="G14" s="101">
         <f t="shared" si="2"/>
-        <v>0.1468005018820577</v>
-      </c>
-      <c r="H14" s="102">
+        <v>0.1540436456996149</v>
+      </c>
+      <c r="H14" s="101">
         <f t="shared" si="2"/>
-        <v>0.16472694717994629</v>
-      </c>
-      <c r="I14" s="102">
+        <v>0.13381555153707053</v>
+      </c>
+      <c r="I14" s="101">
         <f t="shared" si="2"/>
-        <v>0.11889035667107001</v>
-      </c>
-      <c r="J14" s="104">
+        <v>0.11756569847856155</v>
+      </c>
+      <c r="J14" s="103">
         <f t="shared" si="2"/>
-        <v>0.17935103244837758</v>
-      </c>
-      <c r="K14" s="104"/>
+        <v>0.13140604467805519</v>
+      </c>
+      <c r="K14" s="103"/>
       <c r="L14" s="48"/>
       <c r="M14" s="48"/>
       <c r="N14" s="69" t="s">
@@ -9988,7 +9996,7 @@
       </c>
       <c r="O14" s="98">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5710000000000001E-2</v>
+        <v>4.2709999999999998E-2</v>
       </c>
       <c r="P14" s="45"/>
     </row>
@@ -10012,13 +10020,13 @@
         <v>104000000</v>
       </c>
       <c r="G15" s="94">
-        <v>146000000</v>
+        <v>145000000</v>
       </c>
       <c r="H15" s="94">
-        <v>220000000</v>
+        <v>206000000</v>
       </c>
       <c r="I15" s="94">
-        <v>400000000</v>
+        <v>395000000</v>
       </c>
       <c r="J15" s="95">
         <v>450000000</v>
@@ -10031,14 +10039,14 @@
       <c r="N15" s="69" t="s">
         <v>235</v>
       </c>
-      <c r="O15" s="105">
+      <c r="O15" s="104">
         <f>1.33</f>
         <v>1.33</v>
       </c>
       <c r="P15" s="45"/>
     </row>
     <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="106"/>
+      <c r="A16" s="105"/>
       <c r="B16" s="49"/>
       <c r="C16" s="49">
         <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
@@ -10058,23 +10066,23 @@
       </c>
       <c r="G16" s="49">
         <f t="shared" si="3"/>
-        <v>0.40384615384615374</v>
+        <v>0.39423076923076916</v>
       </c>
       <c r="H16" s="49">
         <f t="shared" si="3"/>
-        <v>0.50684931506849318</v>
+        <v>0.42068965517241375</v>
       </c>
       <c r="I16" s="49">
         <f t="shared" si="3"/>
-        <v>0.81818181818181812</v>
+        <v>0.91747572815533984</v>
       </c>
       <c r="J16" s="97">
         <f t="shared" si="3"/>
-        <v>0.125</v>
+        <v>0.139240506329114</v>
       </c>
       <c r="K16" s="97">
         <f>SUM(F16:J16)/5</f>
-        <v>0.45518878655935291</v>
+        <v>0.4587406609175872</v>
       </c>
       <c r="L16" s="48"/>
       <c r="M16" s="48"/>
@@ -10087,85 +10095,85 @@
       <c r="P16" s="45"/>
     </row>
     <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="101" t="s">
+      <c r="A17" s="118" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="102">
+      <c r="B17" s="101">
         <f>B15/B10</f>
         <v>0.10271517949340947</v>
       </c>
-      <c r="C17" s="102">
+      <c r="C17" s="101">
         <f t="shared" ref="C17:J17" si="4">C15/C10</f>
         <v>0.24243881209899176</v>
       </c>
-      <c r="D17" s="102">
+      <c r="D17" s="101">
         <f t="shared" si="4"/>
         <v>5.2451543987540462E-2</v>
       </c>
-      <c r="E17" s="104">
+      <c r="E17" s="103">
         <f t="shared" si="4"/>
         <v>0.17878787137971244</v>
       </c>
-      <c r="F17" s="102">
+      <c r="F17" s="101">
         <f t="shared" si="4"/>
-        <v>0.17747440273037543</v>
-      </c>
-      <c r="G17" s="102">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="G17" s="101">
         <f t="shared" si="4"/>
-        <v>0.18318695106649938</v>
-      </c>
-      <c r="H17" s="102">
+        <v>0.18613607188703465</v>
+      </c>
+      <c r="H17" s="101">
         <f t="shared" si="4"/>
-        <v>0.19695613249776187</v>
-      </c>
-      <c r="I17" s="102">
+        <v>0.18625678119349007</v>
+      </c>
+      <c r="I17" s="101">
         <f t="shared" si="4"/>
-        <v>0.26420079260237783</v>
-      </c>
-      <c r="J17" s="104">
+        <v>0.27316735822959887</v>
+      </c>
+      <c r="J17" s="103">
         <f t="shared" si="4"/>
-        <v>0.26548672566371684</v>
-      </c>
-      <c r="K17" s="104"/>
+        <v>0.29566360052562418</v>
+      </c>
+      <c r="K17" s="103"/>
       <c r="L17" s="48"/>
       <c r="M17" s="48"/>
-      <c r="N17" s="107" t="s">
+      <c r="N17" s="106" t="s">
         <v>232</v>
       </c>
-      <c r="O17" s="108">
+      <c r="O17" s="107">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.6635700000000019E-2</v>
+        <v>9.762570000000001E-2</v>
       </c>
       <c r="P17" s="45"/>
     </row>
     <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="109" t="s">
+      <c r="A18" s="108" t="s">
         <v>188</v>
       </c>
-      <c r="B18" s="110">
+      <c r="B18" s="109">
         <v>7.1974763040065129E-2</v>
       </c>
-      <c r="C18" s="110">
+      <c r="C18" s="109">
         <v>4.3238196395532107E-2</v>
       </c>
-      <c r="D18" s="110">
+      <c r="D18" s="109">
         <v>-6.8673211820324376E-2</v>
       </c>
-      <c r="E18" s="110">
+      <c r="E18" s="109">
         <v>-0.14979033593721156</v>
       </c>
-      <c r="F18" s="111"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="112"/>
-      <c r="K18" s="113"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="111"/>
+      <c r="K18" s="112"/>
       <c r="L18" s="48"/>
       <c r="M18" s="48"/>
-      <c r="N18" s="129" t="s">
+      <c r="N18" s="128" t="s">
         <v>237</v>
       </c>
-      <c r="O18" s="130"/>
+      <c r="O18" s="129"/>
       <c r="P18" s="45"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -10187,7 +10195,7 @@
       <c r="N19" s="69" t="s">
         <v>215</v>
       </c>
-      <c r="O19" s="114">
+      <c r="O19" s="113">
         <f>O6+O7</f>
         <v>22586000</v>
       </c>
@@ -10209,24 +10217,24 @@
       <c r="N20" s="69" t="s">
         <v>193</v>
       </c>
-      <c r="O20" s="114">
+      <c r="O20" s="113">
         <f>A3</f>
-        <v>6090521000</v>
+        <v>5998540000</v>
       </c>
       <c r="P20" s="45"/>
     </row>
     <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="125" t="str" cm="1">
+      <c r="A21" s="131" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="B21" s="125"/>
-      <c r="C21" s="126" cm="1">
-        <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
+      <c r="B21" s="131"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="132" cm="1">
+        <f t="array" ref="D21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>2013</v>
       </c>
-      <c r="D21" s="126"/>
-      <c r="E21" s="126"/>
+      <c r="E21" s="132"/>
       <c r="F21" s="48"/>
       <c r="G21" s="48"/>
       <c r="H21" s="48"/>
@@ -10237,9 +10245,9 @@
       <c r="N21" s="69" t="s">
         <v>239</v>
       </c>
-      <c r="O21" s="114">
+      <c r="O21" s="113">
         <f>O19+O20</f>
-        <v>6113107000</v>
+        <v>6021126000</v>
       </c>
       <c r="P21" s="45"/>
     </row>
@@ -10263,9 +10271,9 @@
       <c r="N22" s="85" t="s">
         <v>240</v>
       </c>
-      <c r="O22" s="115">
+      <c r="O22" s="114">
         <f>(O19/O21)</f>
-        <v>3.6946842252229511E-3</v>
+        <v>3.7511256200252244E-3</v>
       </c>
       <c r="P22" s="45"/>
     </row>
@@ -10283,12 +10291,12 @@
       <c r="K23" s="48"/>
       <c r="L23" s="48"/>
       <c r="M23" s="48"/>
-      <c r="N23" s="107" t="s">
+      <c r="N23" s="106" t="s">
         <v>241</v>
       </c>
-      <c r="O23" s="116">
+      <c r="O23" s="115">
         <f>O20/O21</f>
-        <v>0.9963053157747771</v>
+        <v>0.99624887437997478</v>
       </c>
       <c r="P23" s="45"/>
     </row>
@@ -10328,7 +10336,7 @@
       <c r="M25" s="48"/>
       <c r="N25" s="121">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.5044991453691663E-2</v>
+        <v>9.6006977573431046E-2</v>
       </c>
       <c r="O25" s="122"/>
       <c r="P25" s="45"/>
@@ -10388,11 +10396,11 @@
       <c r="P28" s="45"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="125"/>
-      <c r="B29" s="125"/>
-      <c r="C29" s="125"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="125"/>
+      <c r="A29" s="130"/>
+      <c r="B29" s="130"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="130"/>
       <c r="F29" s="48"/>
       <c r="G29" s="48"/>
       <c r="H29" s="48"/>
@@ -10406,11 +10414,11 @@
       <c r="P29" s="45"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="125"/>
-      <c r="B30" s="125"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="125"/>
+      <c r="A30" s="130"/>
+      <c r="B30" s="130"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="130"/>
       <c r="F30" s="48"/>
       <c r="G30" s="48"/>
       <c r="H30" s="48"/>
@@ -11182,13 +11190,13 @@
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:E30"/>
-    <mergeCell ref="C21:E21"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A22:E28"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NASDAQGS:GLBE/explorer/revenue_proj" xr:uid="{00AE2E8C-02FD-E349-AF9E-2E9EBD1291E1}"/>

--- a/Technology/Software/Global-E.xlsx
+++ b/Technology/Software/Global-E.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2124C8-9CF9-834D-B2ED-AD5A4C27354B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E7D100-0FDB-204C-BDB9-EF9CAA2B3963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1709,6 +1709,9 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1727,9 +1730,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
     <xf numFmtId="9" fontId="13" fillId="11" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1743,7 +1743,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
@@ -1786,6 +1786,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1805,7 +1807,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1818,6 +1820,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1945,10 +1949,10 @@
     <v>Powered by Refinitiv</v>
     <v>45.72</v>
     <v>18.14</v>
-    <v>2.27</v>
-    <v>6.6277000000000003E-2</v>
-    <v>0.18</v>
-    <v>4.9290000000000002E-3</v>
+    <v>-0.3</v>
+    <v>-8.7080000000000005E-3</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>Global-E Online Ltd is an Israel-based company operates as a software publisher. It develops e-commerce platform Global-e which enable direct-to-consumer cross-border e-commerce. Through its end-to-end solutions that combine localization capabilities, big-data business intelligence models, international logistics and cross-border experience, it enables retailers and brands to increase international traffic conversion and sales and achieve global online growth. The Company operates from seven offices worldwide and is the chosen partner of retailers and brands across the United States, Europe and Asia.</v>
     <v>767</v>
@@ -1956,24 +1960,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>25 Basel Street, PETAH TIKVA, 4951038 IL</v>
-    <v>36.832099999999997</v>
+    <v>35.03</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45261.965917638285</v>
+    <v>45269.041566446096</v>
     <v>0</v>
-    <v>34.33</v>
-    <v>5998540000</v>
+    <v>33.82</v>
+    <v>5609260440</v>
     <v>GLOBAL-E ONLINE LTD</v>
     <v>GLOBAL-E ONLINE LTD</v>
-    <v>34.33</v>
-    <v>34.25</v>
-    <v>36.520000000000003</v>
-    <v>36.700000000000003</v>
+    <v>34.01</v>
+    <v>34.450000000000003</v>
+    <v>34.15</v>
+    <v>34.15</v>
     <v>164253600</v>
     <v>GLBE</v>
     <v>GLOBAL-E ONLINE LTD (XNAS:GLBE)</v>
-    <v>2962133</v>
-    <v>1961632</v>
+    <v>1542116</v>
+    <v>2006354</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -2571,7 +2575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K196"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" workbookViewId="0">
+    <sheetView topLeftCell="A118" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A190" sqref="A190:XFD190"/>
     </sheetView>
@@ -9394,7 +9398,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9402,48 +9406,48 @@
     <col min="1" max="19" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="124" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="123" t="e" vm="1">
+    <row r="1" spans="1:16" s="125" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="124" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-    </row>
-    <row r="2" spans="1:16" s="124" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="123"/>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+    </row>
+    <row r="2" spans="1:16" s="125" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="124"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="53" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>5998540000</v>
+        <v>5609260440</v>
       </c>
       <c r="B3" s="54" t="s">
         <v>193</v>
@@ -9463,15 +9467,15 @@
         <v>195</v>
       </c>
       <c r="G3" s="57">
-        <f>AVERAGE(Financials!F129:K129)</f>
-        <v>1.5107976643331134E-2</v>
+        <f>AVERAGE(Financials!E129:K129)</f>
+        <v>2.1205532861054772E-2</v>
       </c>
       <c r="H3" s="56" t="s">
         <v>196</v>
       </c>
       <c r="I3" s="58">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>6495840490.084281</v>
+        <v>6461160485.8479538</v>
       </c>
       <c r="J3" s="59" t="s">
         <v>197</v>
@@ -9514,21 +9518,21 @@
       </c>
       <c r="G4" s="65">
         <f>A5*(1+(5*G3))</f>
-        <v>176661297.76191527</v>
+        <v>181669025.56173271</v>
       </c>
       <c r="H4" s="64" t="s">
         <v>202</v>
       </c>
       <c r="I4" s="46">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>5037769833.7699337</v>
+        <v>5007590422.7633257</v>
       </c>
       <c r="J4" s="64" t="s">
         <v>203</v>
       </c>
       <c r="K4" s="66" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>6.6277000000000003E-2</v>
+        <v>-8.7080000000000005E-3</v>
       </c>
       <c r="L4" s="67" t="s">
         <v>243</v>
@@ -9571,14 +9575,14 @@
       </c>
       <c r="I5" s="46">
         <f>I4+G5-G6</f>
-        <v>5238866833.7699337</v>
+        <v>5208687422.7633257</v>
       </c>
       <c r="J5" s="64" t="s">
         <v>210</v>
       </c>
       <c r="K5" s="51" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>36.520000000000003</v>
+        <v>34.15</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>211</v>
@@ -9596,7 +9600,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="71">
         <f>O20/F10</f>
-        <v>10.414131944444444</v>
+        <v>9.7382993750000004</v>
       </c>
       <c r="B6" s="63" t="s">
         <v>213</v>
@@ -9624,14 +9628,14 @@
       </c>
       <c r="I6" s="66">
         <f>N25</f>
-        <v>9.6006977573431046E-2</v>
+        <v>9.6388104506967096E-2</v>
       </c>
       <c r="J6" s="64" t="s">
         <v>216</v>
       </c>
       <c r="K6" s="72">
         <f>I5/G4</f>
-        <v>29.654864422145842</v>
+        <v>28.671301597274041</v>
       </c>
       <c r="L6" s="73" t="s">
         <v>217</v>
@@ -9649,14 +9653,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="74">
         <f>O20/F12</f>
-        <v>63.142526315789475</v>
+        <v>59.044846736842103</v>
       </c>
       <c r="B7" s="75" t="s">
         <v>219</v>
       </c>
       <c r="C7" s="76">
         <f>F15/A3</f>
-        <v>1.7337552137686837E-2</v>
+        <v>1.8540768629384589E-2</v>
       </c>
       <c r="D7" s="75" t="s">
         <v>220</v>
@@ -9683,7 +9687,7 @@
       </c>
       <c r="K7" s="82">
         <f>K6/K5-1</f>
-        <v>-0.18798290191276457</v>
+        <v>-0.16043040710764145</v>
       </c>
       <c r="L7" s="83" t="s">
         <v>223</v>
@@ -9996,7 +10000,7 @@
       </c>
       <c r="O14" s="98">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="45"/>
     </row>
@@ -10142,7 +10146,7 @@
       </c>
       <c r="O17" s="107">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.762570000000001E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="45"/>
     </row>
@@ -10219,7 +10223,7 @@
       </c>
       <c r="O20" s="113">
         <f>A3</f>
-        <v>5998540000</v>
+        <v>5609260440</v>
       </c>
       <c r="P20" s="45"/>
     </row>
@@ -10247,19 +10251,19 @@
       </c>
       <c r="O21" s="113">
         <f>O19+O20</f>
-        <v>6021126000</v>
+        <v>5631846440</v>
       </c>
       <c r="P21" s="45"/>
     </row>
     <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="125" t="str" cm="1">
+      <c r="A22" s="130" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Global-E Online Ltd is an Israel-based company operates as a software publisher. It develops e-commerce platform Global-e which enable direct-to-consumer cross-border e-commerce. Through its end-to-end solutions that combine localization capabilities, big-data business intelligence models, international logistics and cross-border experience, it enables retailers and brands to increase international traffic conversion and sales and achieve global online growth. The Company operates from seven offices worldwide and is the chosen partner of retailers and brands across the United States, Europe and Asia.</v>
       </c>
-      <c r="B22" s="125"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="125"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
       <c r="F22" s="48"/>
       <c r="G22" s="48"/>
       <c r="H22" s="48"/>
@@ -10273,16 +10277,16 @@
       </c>
       <c r="O22" s="114">
         <f>(O19/O21)</f>
-        <v>3.7511256200252244E-3</v>
+        <v>4.0104076417254017E-3</v>
       </c>
       <c r="P22" s="45"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="125"/>
-      <c r="B23" s="125"/>
-      <c r="C23" s="125"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="125"/>
+      <c r="A23" s="130"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
       <c r="F23" s="48"/>
       <c r="G23" s="48"/>
       <c r="H23" s="48"/>
@@ -10296,16 +10300,16 @@
       </c>
       <c r="O23" s="115">
         <f>O20/O21</f>
-        <v>0.99624887437997478</v>
+        <v>0.99598959235827456</v>
       </c>
       <c r="P23" s="45"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="125"/>
-      <c r="B24" s="125"/>
-      <c r="C24" s="125"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="125"/>
+      <c r="A24" s="130"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
       <c r="F24" s="48"/>
       <c r="G24" s="48"/>
       <c r="H24" s="48"/>
@@ -10314,18 +10318,18 @@
       <c r="K24" s="48"/>
       <c r="L24" s="48"/>
       <c r="M24" s="48"/>
-      <c r="N24" s="119" t="s">
+      <c r="N24" s="120" t="s">
         <v>242</v>
       </c>
-      <c r="O24" s="120"/>
+      <c r="O24" s="121"/>
       <c r="P24" s="45"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="125"/>
-      <c r="B25" s="125"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="125"/>
+      <c r="A25" s="130"/>
+      <c r="B25" s="130"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="130"/>
       <c r="F25" s="48"/>
       <c r="G25" s="48"/>
       <c r="H25" s="48"/>
@@ -10334,19 +10338,19 @@
       <c r="K25" s="48"/>
       <c r="L25" s="48"/>
       <c r="M25" s="48"/>
-      <c r="N25" s="121">
+      <c r="N25" s="122">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.6006977573431046E-2</v>
-      </c>
-      <c r="O25" s="122"/>
+        <v>9.6388104506967096E-2</v>
+      </c>
+      <c r="O25" s="123"/>
       <c r="P25" s="45"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="125"/>
-      <c r="B26" s="125"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="125"/>
+      <c r="A26" s="130"/>
+      <c r="B26" s="130"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="130"/>
       <c r="F26" s="48"/>
       <c r="G26" s="48"/>
       <c r="H26" s="48"/>
@@ -10360,11 +10364,11 @@
       <c r="P26" s="45"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="125"/>
-      <c r="B27" s="125"/>
-      <c r="C27" s="125"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="125"/>
+      <c r="A27" s="130"/>
+      <c r="B27" s="130"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="130"/>
       <c r="F27" s="48"/>
       <c r="G27" s="48"/>
       <c r="H27" s="48"/>
@@ -10378,11 +10382,11 @@
       <c r="P27" s="45"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="125"/>
-      <c r="B28" s="125"/>
-      <c r="C28" s="125"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="125"/>
+      <c r="A28" s="130"/>
+      <c r="B28" s="130"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="130"/>
       <c r="F28" s="48"/>
       <c r="G28" s="48"/>
       <c r="H28" s="48"/>
@@ -10396,11 +10400,11 @@
       <c r="P28" s="45"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="130"/>
-      <c r="B29" s="130"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="130"/>
+      <c r="A29" s="119"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="119"/>
       <c r="F29" s="48"/>
       <c r="G29" s="48"/>
       <c r="H29" s="48"/>
@@ -10414,11 +10418,11 @@
       <c r="P29" s="45"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="130"/>
-      <c r="B30" s="130"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="130"/>
+      <c r="A30" s="119"/>
+      <c r="B30" s="119"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="119"/>
       <c r="F30" s="48"/>
       <c r="G30" s="48"/>
       <c r="H30" s="48"/>
